--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVST1/B1-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1-007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVST1/B1-007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1-008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVST1/B1-008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1-009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVST1/B1-009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1-016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,15 +225,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AVST1/B1-016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学級委員　琴吹文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVST1/B1-006.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVST1/B1-007.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVST1/B1-008.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVST1/B1-009.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVST1/B1-016.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,7 +721,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -781,7 +781,7 @@
         <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q1" t="s">
         <v>15</v>
@@ -792,13 +792,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -834,21 +834,21 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
       </c>
       <c r="K3">
         <v>8000</v>
@@ -887,21 +887,21 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -919,10 +919,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>10000</v>
@@ -940,24 +940,24 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -966,16 +966,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>6000</v>
@@ -993,21 +993,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>6000</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -185,10 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIGUMA*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{[起動型能力,(FALL)あなたの山札の上を見て、山札の上か捨札に置く。]}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,6 +247,9 @@
   <si>
     <t>AVST1/B1-016.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Σ</t>
   </si>
 </sst>
 </file>
@@ -721,7 +720,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -792,13 +791,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -837,7 +836,7 @@
         <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -890,7 +889,7 @@
         <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -943,7 +942,7 @@
         <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -966,16 +965,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
         <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
       </c>
       <c r="K5">
         <v>6000</v>
@@ -993,21 +992,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1025,10 +1024,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
       </c>
       <c r="K6">
         <v>6000</v>
@@ -1046,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="420" windowWidth="29040" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="11895" yWindow="480" windowWidth="13155" windowHeight="9735" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Starter1" sheetId="1" r:id="rId1"/>
@@ -137,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{[自動型能力,リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文の目には何でも見えている。敵の動きも……弱点でさえも。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{[自動型能力,リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「確かに私の目はよく見えるけど、見えるのと動けるのは違うよ」</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{[起動型能力,(FALL)あなたの山札の上を見て、山札の上か捨札に置く。]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「先輩っ！」見つめる舞衣菜の瞳には、夢と希望が輝いている。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -229,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{[自動型能力,リンク‐リンクステップ開始時［リンク5‐②Σ］ そのターン中、このカードのパワーを＋6000。]}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「アスリートだからね！」はねるはそう言うと、人懐っこく笑う。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,6 +243,18 @@
   <si>
     <t>第1章 青蘭の聖少女</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動型能力,リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。</t>
+  </si>
+  <si>
+    <t>自動型能力,リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。</t>
+  </si>
+  <si>
+    <t>起動型能力,(FALL)あなたの山札の上を見て、山札の上か捨札に置く。</t>
+  </si>
+  <si>
+    <t>自動型能力,リンク‐リンクステップ開始時［リンク5‐②Σ］ そのターン中、このカードのパワーを＋6000。</t>
   </si>
 </sst>
 </file>
@@ -728,15 +724,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="9" max="9" width="117" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
@@ -750,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -795,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -803,13 +799,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -851,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -862,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -880,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
         <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
       </c>
       <c r="K3">
         <v>8000</v>
@@ -904,21 +900,21 @@
         <v>28</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -936,10 +932,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K4">
         <v>10000</v>
@@ -960,24 +956,24 @@
         <v>28</v>
       </c>
       <c r="Q4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -986,16 +982,16 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>6000</v>
@@ -1013,24 +1009,24 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1048,10 +1044,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>6000</v>
@@ -1069,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" t="s">
         <v>55</v>
-      </c>
-      <c r="R6" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>CardNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SIGUMA*1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>「先輩っ！」見つめる舞衣菜の瞳には、夢と希望が輝いている。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,16 +241,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自動型能力,リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。</t>
-  </si>
-  <si>
-    <t>自動型能力,リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。</t>
-  </si>
-  <si>
-    <t>起動型能力,(FALL)あなたの山札の上を見て、山札の上か捨札に置く。</t>
-  </si>
-  <si>
-    <t>自動型能力,リンク‐リンクステップ開始時［リンク5‐②Σ］ そのターン中、このカードのパワーを＋6000。</t>
+    <t>Σ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#(横置)あなたの山札の上を見て、山札の上か捨札に置く。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク5‐②Σ］ そのターン中、このカードのパワーを＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -724,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -791,7 +799,7 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
@@ -799,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -820,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
@@ -847,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -903,7 +911,7 @@
         <v>30</v>
       </c>
       <c r="R3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -959,7 +967,7 @@
         <v>34</v>
       </c>
       <c r="R4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -982,7 +990,7 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -991,7 +999,7 @@
         <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K5">
         <v>6000</v>
@@ -1009,24 +1017,24 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" t="s">
-        <v>45</v>
-      </c>
       <c r="R5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1047,7 +1055,7 @@
         <v>59</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>6000</v>
@@ -1065,17 +1073,20 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
         <v>50</v>
       </c>
-      <c r="Q6" t="s">
-        <v>51</v>
-      </c>
       <c r="R6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I3" r:id="rId1" display="2@リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="480" windowWidth="13155" windowHeight="9735" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33060" windowHeight="17120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Starter1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,249 +19,580 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="185">
   <si>
     <t>CardNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CardName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Linkframe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Buster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EffectText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DescribeText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GuardPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Feature1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Feature2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Illustrator</t>
+  </si>
+  <si>
+    <t>TextureResource</t>
+  </si>
+  <si>
+    <t>Serials</t>
   </si>
   <si>
     <t>B1-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextureResource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学級委員　琴吹文</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>青</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学級委員である文がいるだけで、何故かクラスがまとまるのだ。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七</t>
   </si>
   <si>
     <t>AVST1/B1-006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1章 青蘭の聖少女</t>
   </si>
   <si>
     <t>B1-007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ゲーマー少女　琴吹文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Illustrator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文の目には何でも見えている。敵の動きも……弱点でさえも。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVST1/B1-007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1-008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>全国ランカー　琴吹文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
   </si>
   <si>
     <t>「確かに私の目はよく見えるけど、見えるのと動けるのは違うよ」</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVST1/B1-008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1-009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>後輩　佐久良舞衣菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「先輩っ！」見つめる舞衣菜の瞳には、夢と希望が輝いている。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一葉モカ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVST1/B1-009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>B1-016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陸上部　土屋原はねる</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>「アスリートだからね！」はねるはそう言うと、人懐っこく笑う。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ニリツ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVST1/B1-016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学級委員　琴吹文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Serials</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1章 青蘭の聖少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Σ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-017</t>
+  </si>
+  <si>
+    <t>アスリート　土屋原はねる</t>
+  </si>
+  <si>
+    <t>走る前はわくわくする。この足は遠く高く、自分を運んでくれる</t>
+  </si>
+  <si>
+    <t>AVST1/B1-017</t>
+  </si>
+  <si>
+    <t>B1-018</t>
+  </si>
+  <si>
+    <t>全力疾走　土屋原はねる</t>
+  </si>
+  <si>
+    <t>「ぷはぁーっ、気持ちイイ！　ん？　な～にジロジロ見てんの？」</t>
+  </si>
+  <si>
+    <t>AVST1/B1-018</t>
+  </si>
+  <si>
+    <t>B1-019</t>
+  </si>
+  <si>
+    <t>目覚めた可能性　日向美海</t>
+  </si>
+  <si>
+    <t>海に囲まれた青蘭島で、美海の新しい生活が始まろうとしていた。</t>
+  </si>
+  <si>
+    <t>みわべさくら</t>
+  </si>
+  <si>
+    <t>AVST1/B1-019</t>
+  </si>
+  <si>
+    <t>B1-029</t>
+  </si>
+  <si>
+    <t>露払いの千早</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>諸々の禍事、祓い給ひ清め給へ――其の薄衣はあらゆる邪を祓う。</t>
+  </si>
+  <si>
+    <t>ゴースト</t>
+  </si>
+  <si>
+    <t>巫女</t>
+  </si>
+  <si>
+    <t>結城リカ</t>
+  </si>
+  <si>
+    <t>AVST1/B1-029</t>
+  </si>
+  <si>
+    <t>B1-030</t>
+  </si>
+  <si>
+    <t>猫の恩返し</t>
+  </si>
+  <si>
+    <t>その姿はあの雨の日に助けた猫そのものだった……大きさ以外は。</t>
+  </si>
+  <si>
+    <t>妖怪</t>
+  </si>
+  <si>
+    <t>化け猫</t>
+  </si>
+  <si>
+    <t>カジミヤ</t>
+  </si>
+  <si>
+    <t>AVST1/B1-030</t>
+  </si>
+  <si>
+    <t>B1-037</t>
+  </si>
+  <si>
+    <t>安らぎの時　ソフィーナ</t>
+  </si>
+  <si>
+    <t>黒</t>
+  </si>
+  <si>
+    <t>世界を救えるのは才能ある少女だけだ。そう、自分のような。</t>
+  </si>
+  <si>
+    <t>悪魔</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>紅緒</t>
+  </si>
+  <si>
+    <t>AVST1/B1-037</t>
+  </si>
+  <si>
+    <t>B1-043</t>
+  </si>
+  <si>
+    <t>小悪魔　フランボワーズ</t>
+  </si>
+  <si>
+    <t>世界の危機も滅亡も、デーモンにとってはお祭りみたいなものだ。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪魔 </t>
+  </si>
+  <si>
+    <t>代官山ゑびす</t>
+  </si>
+  <si>
+    <t>AVST1/B1-043</t>
+  </si>
+  <si>
+    <t>B1-044</t>
+  </si>
+  <si>
+    <t>悪戯好き　フランボワーズ</t>
+  </si>
+  <si>
+    <t>小さいからって油断してると、指先くらい黒焦げにされちゃうぞ。</t>
+  </si>
+  <si>
+    <t>AVST1/B1-044</t>
+  </si>
+  <si>
+    <t>B1-045</t>
+  </si>
+  <si>
+    <t>痺針の瞬雷　フランボワーズ</t>
+  </si>
+  <si>
+    <t>「アッハハハ、ホラホラ逃げないとビリビリしちゃうぜ～！」</t>
+  </si>
+  <si>
+    <t>AVST1/B1-045</t>
+  </si>
+  <si>
+    <t>B1-046</t>
+  </si>
+  <si>
+    <t>失敗続きの錬金師　ケイ</t>
+  </si>
+  <si>
+    <t>爆発と共に異様な臭いが辺りに漂う。……本日の失敗、五度目。</t>
+  </si>
+  <si>
+    <t>魔女</t>
+  </si>
+  <si>
+    <t>錬金術</t>
+  </si>
+  <si>
+    <t>希</t>
+  </si>
+  <si>
+    <t>AVST1/B1-046</t>
+  </si>
+  <si>
+    <t>B1-047</t>
+  </si>
+  <si>
+    <t>研究熱心な錬金師　ケイ</t>
+  </si>
+  <si>
+    <t>誰も見たことのない魔法を作りたい。それが彼女の大きな夢だ。</t>
+  </si>
+  <si>
+    <t>AVST1/B1-047</t>
+  </si>
+  <si>
+    <t>B1-048</t>
+  </si>
+  <si>
+    <t>常識砕きの錬金師　ケイ</t>
+  </si>
+  <si>
+    <t>「あ、あれ？　この反応は……もしかして、成功しちゃった!?」</t>
+  </si>
+  <si>
+    <t>AVST1/B1-048</t>
+  </si>
+  <si>
+    <t>B1-056</t>
+  </si>
+  <si>
+    <t>目醒めた淑女　アイリーン</t>
+  </si>
+  <si>
+    <t>丸い関節を動かし、楚々と礼をする。大きなガラスの瞳が瞬いた。</t>
+  </si>
+  <si>
+    <t>人形</t>
+  </si>
+  <si>
+    <t>AVST1/B1-056</t>
+  </si>
+  <si>
+    <t>B1-057</t>
+  </si>
+  <si>
+    <t>炎狼ブレイズ</t>
+  </si>
+  <si>
+    <t>踏み出すたびに空気が熱く焦げる。その狼は全身に炎を纏う。</t>
+  </si>
+  <si>
+    <t>魔獣</t>
+  </si>
+  <si>
+    <t>ウルフ</t>
+  </si>
+  <si>
+    <t>かんくろう</t>
+  </si>
+  <si>
+    <t>AVST1/B1-057</t>
+  </si>
+  <si>
+    <t>B1-059</t>
+  </si>
+  <si>
+    <t>誘う口笛</t>
+  </si>
+  <si>
+    <t>さあ……ラミアの口笛を聞いたなら、もうあなたは魔性の虜。</t>
+  </si>
+  <si>
+    <t>ラミア</t>
+  </si>
+  <si>
+    <t>AVST1/B1-059</t>
+  </si>
+  <si>
+    <t>S1-001</t>
+  </si>
+  <si>
+    <t>識る者　静宮蘭</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>「世界の真実に近付くのは一体誰なのか……楽しみです」</t>
+  </si>
+  <si>
+    <t>今野隼史</t>
+  </si>
+  <si>
+    <t>AVST1/S1-001</t>
+  </si>
+  <si>
+    <t>S1-002</t>
+  </si>
+  <si>
+    <t>十二杖　ハイディ</t>
+  </si>
+  <si>
+    <t>「魔女王の命よ、少しだけわたくしの力を貸して差し上げるわ」</t>
+  </si>
+  <si>
+    <t>AVST1/S1-002</t>
+  </si>
+  <si>
+    <t>S1-003</t>
+  </si>
+  <si>
+    <t>日向美海</t>
+  </si>
+  <si>
+    <t>身長158cm。クレープと海が大好きな、明るく元気な女子高校生。</t>
+  </si>
+  <si>
+    <t>中村煌</t>
+  </si>
+  <si>
+    <t>AVST1/S1-003</t>
+  </si>
+  <si>
+    <t>第1章 運命邂逅の四世界</t>
+  </si>
+  <si>
+    <t>S1-004</t>
+  </si>
+  <si>
+    <t>ソフィーナ</t>
+  </si>
+  <si>
+    <t>身長154cm。才能豊かな天才魔女。バカにされるとすごく怒る。</t>
+  </si>
+  <si>
+    <t>AVST1/S1-004</t>
+  </si>
+  <si>
+    <t>S1-005</t>
+  </si>
+  <si>
+    <t>アウロラ</t>
+  </si>
+  <si>
+    <t>赤</t>
+  </si>
+  <si>
+    <t>身長169cm。記憶喪失の少女。花が好きなおっとりのんびりさん。</t>
+  </si>
+  <si>
+    <t>女神</t>
+  </si>
+  <si>
+    <t>音楽</t>
+  </si>
+  <si>
+    <t>AVST1/S1-005</t>
+  </si>
+  <si>
+    <t>S1-006</t>
+  </si>
+  <si>
+    <t>セニア</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>身長145cm。なにもかもが初体験。純粋無垢なアンドロイド。</t>
+  </si>
+  <si>
+    <t>アンドロイド</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>AVST1/S1-006</t>
   </si>
   <si>
     <t>2#リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2#リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2#リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2#(横置)あなたの山札の上を見て、山札の上か捨札に置く。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2#リンク‐リンクステップ開始時［リンク5‐②Σ］ そのターン中、このカードのパワーを＋6000。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
+    <t>2#リンク‐リンクステップ開始時［リンク6‐②Ω］ そのターン中、このカードのパワーを＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク8‐①ΣΩΩ］ 1枚引き、そのターン中、このカードのパワーを＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#1枚引き、あなたの手札を1枚選び、捨札に置き、他のあなたのプログレスを1枚選び、そのターン中、パワーを＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［あなたのプログレスを1枚フォールする］ このカードがアクションゾーンに置かれた時、コストを払ってよい。払ったら、2枚引く。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#［横置］あなたの山札の上を見て、山札の上か捨札に置く。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#このカードがアクションゾーンに置かれた時、相手のレベル4以下のプログレスを1枚選び、手札に戻す。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#他のあなたのプログレスを1枚選び、そのターン中、パワーを＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク5‐②Ω］ そのターン中、このカードのパワーを＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク6‐②Σ］ そのターン中、このカードのパワーを＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク8‐①ΣΣΩ］ 相手は自分の手札を1枚選び、捨札に置き、そのターン中、このカードのパワーを＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク7‐①ΣΩ］ そのターン中、このカードのパワーを＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［あなたのプログレスを1枚フォールする］ このカードがアクションゾーンに置かれた時、コストを払ってよい。払ったら、相手のレベル4以下のプログレスを1枚選び、退却させる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#このカードがアクションゾーンに置かれた時、あなたの黒のプログレスがいるなら、相手のレベル2以下のプログレスを1枚選び、退却させる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク6‐ΣΩΩ］ 1枚引き、そのターン中、このカードのパワーを＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#リンク‐リンクステップ開始時［リンク7‐ΣΣΩΩ］ あなたの山札を見てプログレスを1枚まで選んで公開し、手札に加え、その山札をシャッフルし、そのターン中、このカードのパワーを＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Σ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,39 +600,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -321,97 +632,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="35">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="办公室">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -449,79 +689,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="办公室">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="办公室">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -553,16 +793,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -647,8 +891,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -686,43 +930,53 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="3E7FCD"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="A3C2FF"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="4A7DBA"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw dist="23000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
       <a:bodyPr/>
       <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
     </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
@@ -730,23 +984,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="9" max="9" width="117" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="149" customWidth="1"/>
+    <col min="10" max="10" width="67.1640625" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,84 +1010,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>5000</v>
@@ -840,10 +1096,10 @@
         <v>4000</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -852,42 +1108,42 @@
         <v>27</v>
       </c>
       <c r="Q2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="R2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>8000</v>
@@ -896,54 +1152,54 @@
         <v>4000</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K4">
         <v>10000</v>
@@ -952,54 +1208,54 @@
         <v>4000</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>40</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>6000</v>
@@ -1008,54 +1264,54 @@
         <v>4000</v>
       </c>
       <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="N5" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>44</v>
-      </c>
-      <c r="R5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>6000</v>
@@ -1064,31 +1320,1205 @@
         <v>4000</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O6">
         <v>1</v>
       </c>
       <c r="P6" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="R6" t="s">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7">
+        <v>8000</v>
+      </c>
+      <c r="L7">
+        <v>4000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>54</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>10000</v>
+      </c>
+      <c r="L8">
+        <v>4000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9">
+        <v>6000</v>
+      </c>
+      <c r="L9">
+        <v>4000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>4000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>174</v>
+      </c>
+      <c r="J11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>4000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12">
+        <v>6000</v>
+      </c>
+      <c r="L12">
+        <v>4000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>84</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13">
+        <v>6000</v>
+      </c>
+      <c r="L13">
+        <v>4000</v>
+      </c>
+      <c r="M13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>8000</v>
+      </c>
+      <c r="L14">
+        <v>4000</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>82</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>94</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15">
+        <v>10000</v>
+      </c>
+      <c r="L15">
+        <v>4000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>82</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16">
+        <v>6000</v>
+      </c>
+      <c r="L16">
+        <v>4000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N16" t="s">
+        <v>103</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17">
+        <v>8000</v>
+      </c>
+      <c r="L17">
+        <v>4000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>102</v>
+      </c>
+      <c r="N17" t="s">
+        <v>103</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18">
+        <v>10000</v>
+      </c>
+      <c r="L18">
+        <v>4000</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>113</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19">
+        <v>5000</v>
+      </c>
+      <c r="L19">
+        <v>4000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>118</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>180</v>
+      </c>
+      <c r="J20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>4000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>122</v>
+      </c>
+      <c r="N20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" t="s">
+        <v>181</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>4000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21" t="s">
+        <v>129</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>130</v>
+      </c>
+      <c r="R21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22">
+        <v>8000</v>
+      </c>
+      <c r="L22">
+        <v>4000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>139</v>
+      </c>
+      <c r="K23">
+        <v>10000</v>
+      </c>
+      <c r="L23">
+        <v>4000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" t="s">
+        <v>82</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>140</v>
+      </c>
+      <c r="R23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" t="s">
+        <v>143</v>
+      </c>
+      <c r="K24">
+        <v>5000</v>
+      </c>
+      <c r="L24">
+        <v>4000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>25</v>
+      </c>
+      <c r="N24" t="s">
+        <v>26</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>145</v>
+      </c>
+      <c r="R24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25">
+        <v>5000</v>
+      </c>
+      <c r="L25">
+        <v>4000</v>
+      </c>
+      <c r="M25" t="s">
+        <v>81</v>
+      </c>
+      <c r="N25" t="s">
+        <v>82</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>150</v>
+      </c>
+      <c r="R25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26">
+        <v>5000</v>
+      </c>
+      <c r="L26">
+        <v>4000</v>
+      </c>
+      <c r="M26" t="s">
+        <v>155</v>
+      </c>
+      <c r="N26" t="s">
+        <v>156</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27">
+        <v>5000</v>
+      </c>
+      <c r="L27">
+        <v>4000</v>
+      </c>
+      <c r="M27" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" t="s">
+        <v>163</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>164</v>
+      </c>
+      <c r="R27" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="2@リンク‐リンクステップ開始時［リンク6‐①ΣΩ］ そのターン中、このカードのパワーを＋5000。"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="29040" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CP1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="544">
   <si>
     <t>CardNo</t>
   </si>
@@ -1186,7 +1186,939 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>天使</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精霊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>妖精</t>
+  </si>
+  <si>
+    <t>妖精</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堕天使</t>
+  </si>
+  <si>
+    <t>神</t>
+  </si>
+  <si>
+    <t>動物</t>
+  </si>
+  <si>
+    <t>巨人</t>
+  </si>
+  <si>
+    <t>インジェイン</t>
+  </si>
+  <si>
+    <t>エレメンタル</t>
+  </si>
+  <si>
+    <t>カーバンクル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シルフィード </t>
+  </si>
+  <si>
+    <t>ローリス</t>
+  </si>
+  <si>
+    <t>エンジニア</t>
+  </si>
+  <si>
+    <t>格闘</t>
+  </si>
+  <si>
+    <t>オベレーター</t>
+  </si>
+  <si>
+    <t>メイド</t>
+  </si>
+  <si>
+    <t>アンドロイド</t>
+  </si>
+  <si>
+    <t>メガネ</t>
+  </si>
+  <si>
+    <t>機械</t>
+  </si>
+  <si>
+    <t>デバイス</t>
+  </si>
+  <si>
+    <t>合成生物</t>
+  </si>
+  <si>
+    <t>ジェリー</t>
+  </si>
+  <si>
+    <t>ウィルス</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> プログラム</t>
+  </si>
+  <si>
+    <t>バイク</t>
+  </si>
+  <si>
+    <t>青蘭の聖少女</t>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐①ΣΣ］查看自己牌库顶端的卡，选择放回牌库顶端或弃牌区，这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐ΣΣΣ］查看自己牌库顶端的卡，选择放回牌库顶端或弃牌区，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐①ΣΣΣ］这张卡回到苏醒状态，这次战斗中，这张卡力量＋3000。这个能力一回合只能使用一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΣΩ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐①ΣΩ］这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]查看自己牌库顶端的卡，选择放回牌库顶端或弃牌区。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐ΩΩΩ］抽一张卡，这个回合中，这张卡的力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的蓝色进化者有四张以上时，这个回合中，你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的蓝色进化者有两张以上时，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Ω］这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐④］这个回合中，这张卡的力量＋8000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的蓝色进化者有四张以上时，这个回合中、你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Σ］这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐②Ω］这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐①ΣΩΩ］抽一张卡，这个回合中，这张卡的力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]抽两张卡，丢弃两张自己的手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]抽一张卡，丢弃一张自己的手牌，选择自己一张其他的进化者，这个回合中力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΣΩ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΣΣ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐②ΩΩ］抽一张卡，这个回合中，这张卡的力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐②ΩΩ］这个回合中，你每拥有两张手牌，这张卡力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,这个回合中，你的所有蓝色进化者力量＋3000。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,选择你的两张蓝色进化者，这个回合中力量＋3000。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［横置自己的一张进化者］ 这张卡在行动区放置时,支付代价。支付后，抽两张卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,选择对手一张四级以下进化者回到手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Ω］选择一张自己伤害区表向的卡与手牌交换，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的黑色进化者有四张以上时，这个回合中，你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的黑色进化者有两张以上时，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Σ］这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΩΩ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]选择自己一张其他的进化者，这个回合中力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的黑色进化者有四张以上时，这个回合中，你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐ΣΣΣ］从自己牌库中选择一张进化者公开后加入手牌，然后牌库洗牌，丢弃一张自己的手牌，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐①ΣΣΣ］对手丢弃一张手牌，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Ω］这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐②Σ］这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐④］这个回合中，这张卡的力量＋4000。&amp;2#这张卡登场时,这个回合中，你的所有蓝色进化者力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐①ΣΣΩ］对手丢弃一张手牌，这个回合中，这张卡的力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]选择自己一张其他的进化者，这个回合中力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐①ΣΩ］这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]选择一张自己伤害区表向的卡与手牌交换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐ΩΩΩ］选择一张自己伤害区表向的卡与手牌交换，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐②ΩΩ］这个回合中，这张卡的力量＋3000，攻击力＋1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐④］这个回合中，这张卡的力量＋8000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,这个回合中，你的所有黑色进化者力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置、横置自己一张其他的进化者］从自己牌库中选择一张进化者公开后加入手牌，然后牌库洗牌，丢弃一张手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［横置自己的一张进化者］ 这张卡在行动区放置时,支付代价。支付后，选择对手一张四级以下进化者退场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,你的场上有黑色进化者时，选择对手一张二级以下的进化者退场。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,选择你的两张黑色进化者，这个回合中力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΣΩ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐ΩΩΩ］从你的弃牌区选择一张进化者回到手牌，丢弃一张自己的手牌，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐①ΣΩΩ］从你的弃牌区选择一张二级以下的进化者回到手牌，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐④］这个回合中，这张卡的力量＋4000。&amp;2#这张卡登场时,这个回合中，这个回合中，你的所有黑色进化者力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΣΣ］这个回合中，这张卡的力量＋5000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐③ΣΣ］从你的弃牌区选择一张四级以下的进化者，在进化者区横置，这个回合中，这张卡的力量＋8000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐④］这个回合中，这张卡的力量＋8000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]将自己牌库顶端三张卡放入弃牌区，选择自己一张其他的进化者，这个回合中力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的红色进化者有四张以上时，这个回合中，你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的红色进化者有两张以上时，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置]抽一张卡，丢弃一张手牌，选择自己一张其他的进化者，这个回合中力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐②Σ］将自己牌库顶端六张卡放入弃牌区，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐ΣΣΣ］将自己牌库顶端六张卡放入弃牌区，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐①ΩΩΩΩ］给予对手一点伤害，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐②Ω］这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的红色进化者有四张以上时，这个回合中、你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置、横置自己一张其他的进化者］从你的弃牌区选择一张进化者回到手牌，丢弃一张自己的手牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,选择你的两张红色进化者，这个回合中力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,这个回合中，你的所有红色进化者力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［横置自己的一张进化者］ 这张卡在行动区放置时,支付代价。支付后，选择对手一张四级以下进化者放置到牌库的底端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,你的场上有红色进化者时，选择对手一张二级以下的进化者放置到牌库的底端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3# [横置],你的能量卡全部横置时，选择一张你的能量卡回到苏醒状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#[横置、横置自己一张其他的进化者］选择自己一张其他的进化者，对手回合结束前力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的白色进化者有四张以上时，这个回合中，你的所有进化者力量＋2000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐④］你的白色进化者有两张以上时，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐ΣΣΣ］对手回合结束前，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐①ΣΣΩ］对手回合结束前，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐④］这个回合中，这张卡的力量＋4000。&amp;2#这张卡登场时,这个回合中，你的所有红色进化者力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 8‐④］这个回合中，这张卡的力量＋4000。&amp;2#这张卡登场时,这个回合中，你的所有白色进化者力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 5‐①ΩΩ］选择一张自己伤害区里向的卡，变回表向，这个回合中，这张卡的力量＋6000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐ΩΩΩΩ］从牌库横置能量卡放入能量区，这个回合中，你每拥有一张能量卡，这张卡的力量＋1000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 6‐①ΩΩ］选择一张自己伤害区里向的卡，变回表向，这个回合中，这张卡的力量＋4000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［Link 7‐②ΣΣΣ］选择一张自己伤害区的卡，放入弃牌区，这个回合中，这张卡的力量＋8000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,你的场上有白色进化者时，选择对手一张二级以下的进化者放置到牌库顶端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,选择你的两张白色进化者，这个回合中力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#［丢弃一张手牌］ 这张卡在行动区放置时,支付代价。支付后，选择对手一张四级以下进化者放置到牌库顶端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡在行动区放置时,这个回合中，你的所有白色进化者力量＋3000。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蘭の聖少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-001.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-002.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-003.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-004.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-005.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-006.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-007.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-008.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-009.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-010.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-011.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-012.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-013.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-014.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-015.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-016.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-017.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-018.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-019.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-020.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-021.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-022.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-023.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-024.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-025.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-026.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-027.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-028.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-029.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-030.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-031.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-032.32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-033.33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-034.34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-035.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-036.36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-037.37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-038.38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-039.39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-040.40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-041.41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-042.42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-043.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-044.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-045.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-046.46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-047.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-048.48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-049.49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-050.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-051.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-052.52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-053.53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-054.54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-055.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-056.56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-057.57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-058.58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-059.59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-060.60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-061.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-062.62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-063.63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-064.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-065.65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-066.66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-067.67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-068.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-069.69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-070.70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-071.71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-072.72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-073.73</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-074.74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-075.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-076.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-077.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-078.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-079.79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-080.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-081.81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-082.82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-083.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-084.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-085.85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-086.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-087.87</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-088.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-089.89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-090.90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-091.91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-092.92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-093.93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-094.94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-095.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-096.96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-097.97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-098.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-099.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-100.100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-101.101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-102.102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-103.103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-104.104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-105.105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-106.106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-107.107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-108.108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-109.109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-110.110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-111.111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-112.112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-113.113</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-114.114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-115.115</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-116.116</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-117.117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-118.118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-119.119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-120.120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-121.121</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-122.122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-123.123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1-124.124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ω</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1251,12 +2183,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1611,19 +2552,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M79" sqref="M79"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="9" max="9" width="173.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
-    <col min="13" max="13" width="12.25" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1708,6 +2650,9 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2" s="3" t="s">
+        <v>346</v>
+      </c>
       <c r="K2" s="1">
         <v>6000</v>
       </c>
@@ -1719,6 +2664,15 @@
       </c>
       <c r="N2" t="s">
         <v>286</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -1746,6 +2700,9 @@
       <c r="H3">
         <v>0</v>
       </c>
+      <c r="I3" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K3" s="1">
         <v>5000</v>
       </c>
@@ -1757,6 +2714,15 @@
       </c>
       <c r="N3" t="s">
         <v>286</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1784,6 +2750,9 @@
       <c r="H4">
         <v>0</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="K4" s="1">
         <v>6000</v>
       </c>
@@ -1795,6 +2764,15 @@
       </c>
       <c r="N4" t="s">
         <v>286</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1822,6 +2800,9 @@
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5" s="4" t="s">
+        <v>332</v>
+      </c>
       <c r="K5" s="1">
         <v>8000</v>
       </c>
@@ -1833,6 +2814,15 @@
       </c>
       <c r="N5" t="s">
         <v>286</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1860,6 +2850,9 @@
       <c r="H6">
         <v>0</v>
       </c>
+      <c r="I6" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="K6" s="1">
         <v>10000</v>
       </c>
@@ -1871,6 +2864,15 @@
       </c>
       <c r="N6" t="s">
         <v>286</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1898,6 +2900,9 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K7" s="1">
         <v>5000</v>
       </c>
@@ -1909,6 +2914,15 @@
       </c>
       <c r="N7" t="s">
         <v>286</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -1936,6 +2950,9 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="K8" s="1">
         <v>8000</v>
       </c>
@@ -1947,6 +2964,15 @@
       </c>
       <c r="N8" t="s">
         <v>286</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -1974,6 +3000,9 @@
       <c r="H9">
         <v>0</v>
       </c>
+      <c r="I9" s="4" t="s">
+        <v>335</v>
+      </c>
       <c r="K9" s="1">
         <v>10000</v>
       </c>
@@ -1985,6 +3014,15 @@
       </c>
       <c r="N9" t="s">
         <v>286</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
@@ -2012,6 +3050,9 @@
       <c r="H10">
         <v>0</v>
       </c>
+      <c r="I10" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="K10" s="1">
         <v>6000</v>
       </c>
@@ -2023,6 +3064,15 @@
       </c>
       <c r="N10" t="s">
         <v>286</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
@@ -2050,6 +3100,9 @@
       <c r="H11">
         <v>0</v>
       </c>
+      <c r="I11" s="4" t="s">
+        <v>337</v>
+      </c>
       <c r="K11" s="1">
         <v>6000</v>
       </c>
@@ -2061,6 +3114,15 @@
       </c>
       <c r="N11" t="s">
         <v>286</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
@@ -2088,6 +3150,9 @@
       <c r="H12">
         <v>0</v>
       </c>
+      <c r="I12" s="4" t="s">
+        <v>338</v>
+      </c>
       <c r="K12" s="1">
         <v>8000</v>
       </c>
@@ -2099,6 +3164,15 @@
       </c>
       <c r="N12" t="s">
         <v>286</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
@@ -2126,6 +3200,9 @@
       <c r="H13">
         <v>0</v>
       </c>
+      <c r="I13" s="4" t="s">
+        <v>339</v>
+      </c>
       <c r="K13" s="1">
         <v>10000</v>
       </c>
@@ -2137,6 +3214,15 @@
       </c>
       <c r="N13" t="s">
         <v>286</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
@@ -2164,6 +3250,9 @@
       <c r="H14">
         <v>0</v>
       </c>
+      <c r="I14" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="K14" s="1">
         <v>6000</v>
       </c>
@@ -2175,6 +3264,15 @@
       </c>
       <c r="N14" t="s">
         <v>286</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
@@ -2202,6 +3300,9 @@
       <c r="H15">
         <v>0</v>
       </c>
+      <c r="I15" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="K15" s="1">
         <v>8000</v>
       </c>
@@ -2213,6 +3314,15 @@
       </c>
       <c r="N15" t="s">
         <v>286</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
@@ -2240,6 +3350,9 @@
       <c r="H16">
         <v>0</v>
       </c>
+      <c r="I16" s="4" t="s">
+        <v>342</v>
+      </c>
       <c r="K16" s="1">
         <v>10000</v>
       </c>
@@ -2252,8 +3365,17 @@
       <c r="N16" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -2278,6 +3400,9 @@
       <c r="H17">
         <v>0</v>
       </c>
+      <c r="I17" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="K17" s="1">
         <v>6000</v>
       </c>
@@ -2290,8 +3415,17 @@
       <c r="N17" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
@@ -2316,6 +3450,9 @@
       <c r="H18">
         <v>0</v>
       </c>
+      <c r="I18" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="K18" s="1">
         <v>8000</v>
       </c>
@@ -2328,8 +3465,17 @@
       <c r="N18" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -2354,6 +3500,9 @@
       <c r="H19">
         <v>0</v>
       </c>
+      <c r="I19" s="4" t="s">
+        <v>345</v>
+      </c>
       <c r="K19" s="1">
         <v>10000</v>
       </c>
@@ -2366,8 +3515,17 @@
       <c r="N19" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -2392,6 +3550,9 @@
       <c r="H20">
         <v>0</v>
       </c>
+      <c r="I20" s="4" t="s">
+        <v>347</v>
+      </c>
       <c r="K20" s="1">
         <v>6000</v>
       </c>
@@ -2404,8 +3565,17 @@
       <c r="N20" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>84</v>
       </c>
@@ -2430,6 +3600,9 @@
       <c r="H21">
         <v>0</v>
       </c>
+      <c r="I21" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="K21" s="1">
         <v>6000</v>
       </c>
@@ -2442,8 +3615,17 @@
       <c r="N21" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>85</v>
       </c>
@@ -2468,6 +3650,9 @@
       <c r="H22">
         <v>0</v>
       </c>
+      <c r="I22" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="K22" s="1">
         <v>8000</v>
       </c>
@@ -2480,8 +3665,17 @@
       <c r="N22" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>86</v>
       </c>
@@ -2506,6 +3700,9 @@
       <c r="H23">
         <v>0</v>
       </c>
+      <c r="I23" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="K23" s="1">
         <v>8000</v>
       </c>
@@ -2518,8 +3715,17 @@
       <c r="N23" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>87</v>
       </c>
@@ -2544,6 +3750,9 @@
       <c r="H24">
         <v>0</v>
       </c>
+      <c r="I24" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="K24" s="1">
         <v>10000</v>
       </c>
@@ -2556,8 +3765,17 @@
       <c r="N24" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -2582,6 +3800,9 @@
       <c r="H25">
         <v>1</v>
       </c>
+      <c r="I25" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="K25" s="1">
         <v>11000</v>
       </c>
@@ -2594,8 +3815,17 @@
       <c r="N25" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>89</v>
       </c>
@@ -2620,6 +3850,9 @@
       <c r="H26">
         <v>0</v>
       </c>
+      <c r="I26" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K26" s="1">
         <v>8000</v>
       </c>
@@ -2632,8 +3865,17 @@
       <c r="N26" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>90</v>
       </c>
@@ -2658,6 +3900,9 @@
       <c r="H27">
         <v>0</v>
       </c>
+      <c r="I27" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K27" s="1">
         <v>10000</v>
       </c>
@@ -2670,8 +3915,17 @@
       <c r="N27" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>91</v>
       </c>
@@ -2696,6 +3950,9 @@
       <c r="H28">
         <v>0</v>
       </c>
+      <c r="I28" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="K28" s="1">
         <v>0</v>
       </c>
@@ -2708,8 +3965,17 @@
       <c r="N28" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>92</v>
       </c>
@@ -2734,6 +4000,9 @@
       <c r="H29">
         <v>0</v>
       </c>
+      <c r="I29" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="K29" s="1">
         <v>0</v>
       </c>
@@ -2746,8 +4015,17 @@
       <c r="N29" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
@@ -2772,6 +4050,9 @@
       <c r="H30">
         <v>0</v>
       </c>
+      <c r="I30" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="K30" s="1">
         <v>0</v>
       </c>
@@ -2784,8 +4065,17 @@
       <c r="N30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -2810,6 +4100,9 @@
       <c r="H31">
         <v>0</v>
       </c>
+      <c r="I31" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="K31" s="1">
         <v>0</v>
       </c>
@@ -2822,8 +4115,17 @@
       <c r="N31" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -2848,6 +4150,9 @@
       <c r="H32">
         <v>0</v>
       </c>
+      <c r="I32" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="K32" s="1">
         <v>6000</v>
       </c>
@@ -2860,8 +4165,17 @@
       <c r="N32" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>94</v>
       </c>
@@ -2886,6 +4200,9 @@
       <c r="H33">
         <v>0</v>
       </c>
+      <c r="I33" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="K33" s="1">
         <v>8000</v>
       </c>
@@ -2898,8 +4215,17 @@
       <c r="N33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
@@ -2924,6 +4250,9 @@
       <c r="H34">
         <v>0</v>
       </c>
+      <c r="I34" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="K34" s="1">
         <v>10000</v>
       </c>
@@ -2936,8 +4265,17 @@
       <c r="N34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
@@ -2962,6 +4300,9 @@
       <c r="H35">
         <v>0</v>
       </c>
+      <c r="I35" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="K35" s="1">
         <v>6000</v>
       </c>
@@ -2974,8 +4315,17 @@
       <c r="N35" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>97</v>
       </c>
@@ -3000,6 +4350,9 @@
       <c r="H36">
         <v>0</v>
       </c>
+      <c r="I36" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="K36" s="1">
         <v>8000</v>
       </c>
@@ -3012,8 +4365,17 @@
       <c r="N36" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>98</v>
       </c>
@@ -3038,6 +4400,9 @@
       <c r="H37">
         <v>0</v>
       </c>
+      <c r="I37" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="K37" s="1">
         <v>10000</v>
       </c>
@@ -3050,8 +4415,17 @@
       <c r="N37" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -3076,6 +4450,9 @@
       <c r="H38">
         <v>0</v>
       </c>
+      <c r="I38" s="4" t="s">
+        <v>369</v>
+      </c>
       <c r="K38" s="1">
         <v>6000</v>
       </c>
@@ -3088,8 +4465,17 @@
       <c r="N38" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -3114,6 +4500,9 @@
       <c r="H39">
         <v>0</v>
       </c>
+      <c r="I39" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K39" s="1">
         <v>5000</v>
       </c>
@@ -3126,8 +4515,17 @@
       <c r="N39" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
@@ -3152,6 +4550,9 @@
       <c r="H40">
         <v>0</v>
       </c>
+      <c r="I40" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="K40" s="1">
         <v>8000</v>
       </c>
@@ -3164,8 +4565,17 @@
       <c r="N40" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>101</v>
       </c>
@@ -3190,6 +4600,9 @@
       <c r="H41">
         <v>0</v>
       </c>
+      <c r="I41" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="K41" s="1">
         <v>8000</v>
       </c>
@@ -3202,8 +4615,17 @@
       <c r="N41" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -3228,6 +4650,9 @@
       <c r="H42">
         <v>0</v>
       </c>
+      <c r="I42" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="K42" s="1">
         <v>10000</v>
       </c>
@@ -3240,8 +4665,17 @@
       <c r="N42" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>103</v>
       </c>
@@ -3266,6 +4700,9 @@
       <c r="H43">
         <v>1</v>
       </c>
+      <c r="I43" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="K43" s="1">
         <v>11000</v>
       </c>
@@ -3278,8 +4715,17 @@
       <c r="N43" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
@@ -3304,6 +4750,9 @@
       <c r="H44">
         <v>0</v>
       </c>
+      <c r="I44" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="K44" s="1">
         <v>6000</v>
       </c>
@@ -3316,8 +4765,17 @@
       <c r="N44" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -3342,6 +4800,9 @@
       <c r="H45">
         <v>0</v>
       </c>
+      <c r="I45" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="K45" s="1">
         <v>8000</v>
       </c>
@@ -3354,8 +4815,17 @@
       <c r="N45" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -3380,6 +4850,9 @@
       <c r="H46">
         <v>0</v>
       </c>
+      <c r="I46" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="K46" s="1">
         <v>10000</v>
       </c>
@@ -3392,8 +4865,17 @@
       <c r="N46" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>56</v>
       </c>
@@ -3418,6 +4900,9 @@
       <c r="H47">
         <v>0</v>
       </c>
+      <c r="I47" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="K47" s="1">
         <v>6000</v>
       </c>
@@ -3430,8 +4915,17 @@
       <c r="N47" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3456,6 +4950,9 @@
       <c r="H48">
         <v>0</v>
       </c>
+      <c r="I48" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K48" s="1">
         <v>8000</v>
       </c>
@@ -3468,8 +4965,17 @@
       <c r="N48" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>60</v>
       </c>
@@ -3494,6 +5000,9 @@
       <c r="H49">
         <v>0</v>
       </c>
+      <c r="I49" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="K49" s="1">
         <v>10000</v>
       </c>
@@ -3506,8 +5015,17 @@
       <c r="N49" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>104</v>
       </c>
@@ -3532,6 +5050,9 @@
       <c r="H50">
         <v>0</v>
       </c>
+      <c r="I50" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="K50" s="1">
         <v>6000</v>
       </c>
@@ -3544,8 +5065,17 @@
       <c r="N50" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>105</v>
       </c>
@@ -3570,6 +5100,9 @@
       <c r="H51">
         <v>0</v>
       </c>
+      <c r="I51" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="K51" s="1">
         <v>6000</v>
       </c>
@@ -3582,8 +5115,17 @@
       <c r="N51" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
@@ -3608,6 +5150,9 @@
       <c r="H52">
         <v>0</v>
       </c>
+      <c r="I52" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="K52" s="1">
         <v>8000</v>
       </c>
@@ -3620,8 +5165,17 @@
       <c r="N52" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -3646,6 +5200,9 @@
       <c r="H53">
         <v>0</v>
       </c>
+      <c r="I53" s="1" t="s">
+        <v>373</v>
+      </c>
       <c r="K53" s="1">
         <v>10000</v>
       </c>
@@ -3658,8 +5215,17 @@
       <c r="N53" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>108</v>
       </c>
@@ -3684,6 +5250,9 @@
       <c r="H54">
         <v>0</v>
       </c>
+      <c r="I54" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="K54" s="1">
         <v>8000</v>
       </c>
@@ -3696,8 +5265,17 @@
       <c r="N54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>109</v>
       </c>
@@ -3722,6 +5300,9 @@
       <c r="H55">
         <v>0</v>
       </c>
+      <c r="I55" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K55" s="1">
         <v>10000</v>
       </c>
@@ -3734,8 +5315,17 @@
       <c r="N55" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O55" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -3760,6 +5350,9 @@
       <c r="H56">
         <v>0</v>
       </c>
+      <c r="I56" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="K56" s="1">
         <v>6000</v>
       </c>
@@ -3772,8 +5365,17 @@
       <c r="N56" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
@@ -3793,10 +5395,13 @@
         <v>48</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>281</v>
+        <v>543</v>
       </c>
       <c r="H57">
         <v>0</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>542</v>
       </c>
       <c r="K57" s="1">
         <v>5000</v>
@@ -3810,8 +5415,17 @@
       <c r="N57" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -3836,6 +5450,9 @@
       <c r="H58">
         <v>0</v>
       </c>
+      <c r="I58" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="K58" s="1">
         <v>0</v>
       </c>
@@ -3848,8 +5465,17 @@
       <c r="N58" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>111</v>
       </c>
@@ -3874,6 +5500,9 @@
       <c r="H59">
         <v>0</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="K59" s="1">
         <v>0</v>
       </c>
@@ -3886,8 +5515,17 @@
       <c r="N59" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -3912,6 +5550,9 @@
       <c r="H60">
         <v>0</v>
       </c>
+      <c r="I60" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="K60" s="1">
         <v>0</v>
       </c>
@@ -3924,8 +5565,17 @@
       <c r="N60" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -3950,6 +5600,9 @@
       <c r="H61">
         <v>0</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="K61" s="1">
         <v>0</v>
       </c>
@@ -3962,8 +5615,17 @@
       <c r="N61" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>113</v>
       </c>
@@ -3988,6 +5650,9 @@
       <c r="H62">
         <v>0</v>
       </c>
+      <c r="I62" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K62" s="1">
         <v>5000</v>
       </c>
@@ -4000,8 +5665,17 @@
       <c r="N62" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>114</v>
       </c>
@@ -4026,6 +5700,9 @@
       <c r="H63">
         <v>0</v>
       </c>
+      <c r="I63" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="K63" s="1">
         <v>6000</v>
       </c>
@@ -4038,8 +5715,17 @@
       <c r="N63" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>115</v>
       </c>
@@ -4064,6 +5750,9 @@
       <c r="H64">
         <v>0</v>
       </c>
+      <c r="I64" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K64" s="1">
         <v>8000</v>
       </c>
@@ -4076,8 +5765,17 @@
       <c r="N64" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>116</v>
       </c>
@@ -4102,6 +5800,9 @@
       <c r="H65">
         <v>0</v>
       </c>
+      <c r="I65" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="K65" s="1">
         <v>8000</v>
       </c>
@@ -4114,8 +5815,17 @@
       <c r="N65" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>117</v>
       </c>
@@ -4140,6 +5850,9 @@
       <c r="H66">
         <v>0</v>
       </c>
+      <c r="I66" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="K66" s="1">
         <v>10000</v>
       </c>
@@ -4152,8 +5865,17 @@
       <c r="N66" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>118</v>
       </c>
@@ -4178,6 +5900,9 @@
       <c r="H67">
         <v>1</v>
       </c>
+      <c r="I67" s="1" t="s">
+        <v>407</v>
+      </c>
       <c r="K67" s="1">
         <v>11000</v>
       </c>
@@ -4190,8 +5915,17 @@
       <c r="N67" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O67" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -4216,6 +5950,9 @@
       <c r="H68">
         <v>0</v>
       </c>
+      <c r="I68" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="K68" s="1">
         <v>6000</v>
       </c>
@@ -4228,8 +5965,17 @@
       <c r="N68" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
@@ -4254,6 +6000,9 @@
       <c r="H69">
         <v>0</v>
       </c>
+      <c r="I69" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="K69" s="1">
         <v>8000</v>
       </c>
@@ -4266,8 +6015,17 @@
       <c r="N69" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -4292,6 +6050,9 @@
       <c r="H70">
         <v>0</v>
       </c>
+      <c r="I70" s="1" t="s">
+        <v>385</v>
+      </c>
       <c r="K70" s="1">
         <v>10000</v>
       </c>
@@ -4304,8 +6065,17 @@
       <c r="N70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>122</v>
       </c>
@@ -4330,6 +6100,9 @@
       <c r="H71">
         <v>0</v>
       </c>
+      <c r="I71" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K71" s="1">
         <v>5000</v>
       </c>
@@ -4342,8 +6115,17 @@
       <c r="N71" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O71" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q71" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>123</v>
       </c>
@@ -4368,6 +6150,9 @@
       <c r="H72">
         <v>0</v>
       </c>
+      <c r="I72" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="K72" s="1">
         <v>8000</v>
       </c>
@@ -4380,8 +6165,17 @@
       <c r="N72" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>124</v>
       </c>
@@ -4406,6 +6200,9 @@
       <c r="H73">
         <v>0</v>
       </c>
+      <c r="I73" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="K73" s="1">
         <v>10000</v>
       </c>
@@ -4413,13 +6210,22 @@
         <v>4000</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="N73" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>125</v>
       </c>
@@ -4444,6 +6250,9 @@
       <c r="H74">
         <v>0</v>
       </c>
+      <c r="I74" s="1" t="s">
+        <v>387</v>
+      </c>
       <c r="K74" s="1">
         <v>6000</v>
       </c>
@@ -4451,13 +6260,22 @@
         <v>4000</v>
       </c>
       <c r="M74" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N74" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>126</v>
       </c>
@@ -4482,14 +6300,32 @@
       <c r="H75">
         <v>0</v>
       </c>
+      <c r="I75" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="K75" s="1">
         <v>6000</v>
       </c>
       <c r="L75" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M75" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N75" t="s">
+        <v>49</v>
+      </c>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>127</v>
       </c>
@@ -4514,14 +6350,32 @@
       <c r="H76">
         <v>0</v>
       </c>
+      <c r="I76" s="1" t="s">
+        <v>388</v>
+      </c>
       <c r="K76" s="1">
         <v>8000</v>
       </c>
       <c r="L76" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M76" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N76" t="s">
+        <v>49</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q76" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -4546,14 +6400,32 @@
       <c r="H77">
         <v>0</v>
       </c>
+      <c r="I77" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="K77" s="1">
         <v>10000</v>
       </c>
       <c r="L77" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M77" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="N77" t="s">
+        <v>49</v>
+      </c>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>129</v>
       </c>
@@ -4578,14 +6450,32 @@
       <c r="H78">
         <v>0</v>
       </c>
+      <c r="I78" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K78" s="1">
         <v>8000</v>
       </c>
       <c r="L78" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M78" t="s">
+        <v>308</v>
+      </c>
+      <c r="N78" t="s">
+        <v>49</v>
+      </c>
+      <c r="O78" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q78" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>130</v>
       </c>
@@ -4610,14 +6500,32 @@
       <c r="H79">
         <v>0</v>
       </c>
+      <c r="I79" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K79" s="1">
         <v>10000</v>
       </c>
       <c r="L79" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="M79" t="s">
+        <v>308</v>
+      </c>
+      <c r="N79" t="s">
+        <v>49</v>
+      </c>
+      <c r="O79" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>131</v>
       </c>
@@ -4642,14 +6550,32 @@
       <c r="H80">
         <v>0</v>
       </c>
+      <c r="I80" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="K80" s="1">
         <v>6000</v>
       </c>
       <c r="L80" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M80" t="s">
+        <v>306</v>
+      </c>
+      <c r="N80" t="s">
+        <v>49</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>132</v>
       </c>
@@ -4674,14 +6600,32 @@
       <c r="H81">
         <v>0</v>
       </c>
+      <c r="I81" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="K81" s="1">
         <v>6000</v>
       </c>
       <c r="L81" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M81" t="s">
+        <v>306</v>
+      </c>
+      <c r="N81" t="s">
+        <v>49</v>
+      </c>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>133</v>
       </c>
@@ -4706,14 +6650,32 @@
       <c r="H82">
         <v>0</v>
       </c>
+      <c r="I82" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="K82" s="1">
         <v>8000</v>
       </c>
       <c r="L82" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M82" t="s">
+        <v>306</v>
+      </c>
+      <c r="N82" t="s">
+        <v>49</v>
+      </c>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>134</v>
       </c>
@@ -4738,14 +6700,32 @@
       <c r="H83">
         <v>0</v>
       </c>
+      <c r="I83" s="1" t="s">
+        <v>393</v>
+      </c>
       <c r="K83" s="1">
         <v>10000</v>
       </c>
       <c r="L83" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M83" t="s">
+        <v>306</v>
+      </c>
+      <c r="N83" t="s">
+        <v>49</v>
+      </c>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>135</v>
       </c>
@@ -4770,14 +6750,32 @@
       <c r="H84">
         <v>0</v>
       </c>
+      <c r="I84" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K84" s="1">
         <v>6000</v>
       </c>
       <c r="L84" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M84" t="s">
+        <v>309</v>
+      </c>
+      <c r="N84" t="s">
+        <v>72</v>
+      </c>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>136</v>
       </c>
@@ -4802,14 +6800,32 @@
       <c r="H85">
         <v>0</v>
       </c>
+      <c r="I85" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="K85" s="1">
         <v>8000</v>
       </c>
       <c r="L85" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M85" t="s">
+        <v>309</v>
+      </c>
+      <c r="N85" t="s">
+        <v>72</v>
+      </c>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>137</v>
       </c>
@@ -4834,14 +6850,32 @@
       <c r="H86">
         <v>0</v>
       </c>
+      <c r="I86" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="K86" s="1">
         <v>10000</v>
       </c>
       <c r="L86" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M86" t="s">
+        <v>309</v>
+      </c>
+      <c r="N86" t="s">
+        <v>72</v>
+      </c>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>138</v>
       </c>
@@ -4866,14 +6900,32 @@
       <c r="H87">
         <v>0</v>
       </c>
+      <c r="I87" s="1" t="s">
+        <v>396</v>
+      </c>
       <c r="K87" s="1">
         <v>6000</v>
       </c>
       <c r="L87" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M87" t="s">
+        <v>287</v>
+      </c>
+      <c r="N87" t="s">
+        <v>310</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>139</v>
       </c>
@@ -4898,14 +6950,32 @@
       <c r="H88">
         <v>0</v>
       </c>
+      <c r="I88" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M88" t="s">
+        <v>311</v>
+      </c>
+      <c r="N88" t="s">
+        <v>312</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>140</v>
       </c>
@@ -4930,14 +7000,32 @@
       <c r="H89">
         <v>0</v>
       </c>
+      <c r="I89" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M89" t="s">
+        <v>313</v>
+      </c>
+      <c r="N89" t="s">
+        <v>314</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>141</v>
       </c>
@@ -4962,14 +7050,32 @@
       <c r="H90">
         <v>0</v>
       </c>
+      <c r="I90" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M90" t="s">
+        <v>313</v>
+      </c>
+      <c r="N90" t="s">
+        <v>315</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>142</v>
       </c>
@@ -4994,14 +7100,32 @@
       <c r="H91">
         <v>0</v>
       </c>
+      <c r="I91" s="1" t="s">
+        <v>400</v>
+      </c>
       <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M91" t="s">
+        <v>313</v>
+      </c>
+      <c r="N91" t="s">
+        <v>316</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>143</v>
       </c>
@@ -5026,14 +7150,32 @@
       <c r="H92">
         <v>0</v>
       </c>
+      <c r="I92" s="1" t="s">
+        <v>401</v>
+      </c>
       <c r="K92" s="1">
         <v>6000</v>
       </c>
       <c r="L92" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M92" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" t="s">
+        <v>317</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>144</v>
       </c>
@@ -5058,14 +7200,32 @@
       <c r="H93">
         <v>0</v>
       </c>
+      <c r="I93" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="K93" s="1">
         <v>6000</v>
       </c>
       <c r="L93" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N93" t="s">
+        <v>317</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -5090,14 +7250,32 @@
       <c r="H94">
         <v>0</v>
       </c>
+      <c r="I94" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K94" s="1">
         <v>6000</v>
       </c>
       <c r="L94" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M94" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N94" t="s">
+        <v>318</v>
+      </c>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q94" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>146</v>
       </c>
@@ -5122,14 +7300,32 @@
       <c r="H95">
         <v>0</v>
       </c>
+      <c r="I95" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="K95" s="1">
         <v>8000</v>
       </c>
       <c r="L95" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M95" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N95" t="s">
+        <v>318</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>147</v>
       </c>
@@ -5154,14 +7350,32 @@
       <c r="H96">
         <v>0</v>
       </c>
+      <c r="I96" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="K96" s="1">
         <v>10000</v>
       </c>
       <c r="L96" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M96" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N96" t="s">
+        <v>318</v>
+      </c>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>148</v>
       </c>
@@ -5186,14 +7400,32 @@
       <c r="H97">
         <v>0</v>
       </c>
+      <c r="I97" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="K97" s="1">
         <v>6000</v>
       </c>
       <c r="L97" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M97" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N97" t="s">
+        <v>310</v>
+      </c>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>149</v>
       </c>
@@ -5218,14 +7450,32 @@
       <c r="H98">
         <v>0</v>
       </c>
+      <c r="I98" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="K98" s="1">
         <v>8000</v>
       </c>
       <c r="L98" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M98" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N98" t="s">
+        <v>310</v>
+      </c>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>150</v>
       </c>
@@ -5250,14 +7500,32 @@
       <c r="H99">
         <v>0</v>
       </c>
+      <c r="I99" s="1" t="s">
+        <v>404</v>
+      </c>
       <c r="K99" s="1">
         <v>10000</v>
       </c>
       <c r="L99" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M99" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N99" t="s">
+        <v>310</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>151</v>
       </c>
@@ -5282,14 +7550,32 @@
       <c r="H100">
         <v>0</v>
       </c>
+      <c r="I100" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K100" s="1">
         <v>5000</v>
       </c>
       <c r="L100" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M100" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N100" t="s">
+        <v>72</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>152</v>
       </c>
@@ -5314,14 +7600,32 @@
       <c r="H101">
         <v>0</v>
       </c>
+      <c r="I101" s="1" t="s">
+        <v>380</v>
+      </c>
       <c r="K101" s="1">
         <v>8000</v>
       </c>
       <c r="L101" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M101" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N101" t="s">
+        <v>72</v>
+      </c>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>153</v>
       </c>
@@ -5346,14 +7650,32 @@
       <c r="H102">
         <v>0</v>
       </c>
+      <c r="I102" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="K102" s="1">
         <v>10000</v>
       </c>
       <c r="L102" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M102" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N102" t="s">
+        <v>72</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>154</v>
       </c>
@@ -5378,14 +7700,32 @@
       <c r="H103">
         <v>0</v>
       </c>
+      <c r="I103" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K103" s="1">
         <v>8000</v>
       </c>
       <c r="L103" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M103" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N103" t="s">
+        <v>319</v>
+      </c>
+      <c r="O103" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>155</v>
       </c>
@@ -5410,14 +7750,32 @@
       <c r="H104">
         <v>0</v>
       </c>
+      <c r="I104" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K104" s="1">
         <v>10000</v>
       </c>
       <c r="L104" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M104" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N104" t="s">
+        <v>319</v>
+      </c>
+      <c r="O104" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q104" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>156</v>
       </c>
@@ -5442,14 +7800,32 @@
       <c r="H105">
         <v>0</v>
       </c>
+      <c r="I105" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K105" s="1">
         <v>5000</v>
       </c>
       <c r="L105" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M105" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N105" t="s">
+        <v>72</v>
+      </c>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>157</v>
       </c>
@@ -5474,14 +7850,32 @@
       <c r="H106">
         <v>0</v>
       </c>
+      <c r="I106" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="K106" s="1">
         <v>6000</v>
       </c>
       <c r="L106" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M106" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N106" t="s">
+        <v>72</v>
+      </c>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>158</v>
       </c>
@@ -5506,14 +7900,32 @@
       <c r="H107">
         <v>0</v>
       </c>
+      <c r="I107" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="K107" s="1">
         <v>8000</v>
       </c>
       <c r="L107" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M107" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N107" t="s">
+        <v>72</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -5538,14 +7950,32 @@
       <c r="H108">
         <v>0</v>
       </c>
+      <c r="I108" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="K108" s="1">
         <v>8000</v>
       </c>
       <c r="L108" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M108" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N108" t="s">
+        <v>72</v>
+      </c>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>160</v>
       </c>
@@ -5570,14 +8000,32 @@
       <c r="H109">
         <v>0</v>
       </c>
+      <c r="I109" s="1" t="s">
+        <v>406</v>
+      </c>
       <c r="K109" s="1">
         <v>10000</v>
       </c>
       <c r="L109" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M109" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N109" t="s">
+        <v>72</v>
+      </c>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>161</v>
       </c>
@@ -5602,14 +8050,32 @@
       <c r="H110">
         <v>1</v>
       </c>
+      <c r="I110" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="K110" s="1">
         <v>11000</v>
       </c>
       <c r="L110" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M110" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N110" t="s">
+        <v>72</v>
+      </c>
+      <c r="O110" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>162</v>
       </c>
@@ -5634,14 +8100,32 @@
       <c r="H111">
         <v>0</v>
       </c>
+      <c r="I111" s="1" t="s">
+        <v>409</v>
+      </c>
       <c r="K111" s="1">
         <v>6000</v>
       </c>
       <c r="L111" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M111" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N111" t="s">
+        <v>320</v>
+      </c>
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>163</v>
       </c>
@@ -5666,14 +8150,32 @@
       <c r="H112">
         <v>0</v>
       </c>
+      <c r="I112" s="1" t="s">
+        <v>403</v>
+      </c>
       <c r="K112" s="1">
         <v>8000</v>
       </c>
       <c r="L112" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M112" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N112" t="s">
+        <v>320</v>
+      </c>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>164</v>
       </c>
@@ -5698,14 +8200,32 @@
       <c r="H113">
         <v>0</v>
       </c>
+      <c r="I113" s="1" t="s">
+        <v>410</v>
+      </c>
       <c r="K113" s="1">
         <v>10000</v>
       </c>
       <c r="L113" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M113" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N113" t="s">
+        <v>320</v>
+      </c>
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>165</v>
       </c>
@@ -5730,14 +8250,32 @@
       <c r="H114">
         <v>0</v>
       </c>
+      <c r="I114" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="K114" s="1">
         <v>6000</v>
       </c>
       <c r="L114" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M114" t="s">
+        <v>287</v>
+      </c>
+      <c r="N114" t="s">
+        <v>322</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="R114" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>166</v>
       </c>
@@ -5762,14 +8300,32 @@
       <c r="H115">
         <v>0</v>
       </c>
+      <c r="I115" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="K115" s="1">
         <v>6000</v>
       </c>
       <c r="L115" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M115" t="s">
+        <v>287</v>
+      </c>
+      <c r="N115" t="s">
+        <v>322</v>
+      </c>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="R115" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>167</v>
       </c>
@@ -5794,14 +8350,32 @@
       <c r="H116">
         <v>0</v>
       </c>
+      <c r="I116" s="1" t="s">
+        <v>411</v>
+      </c>
       <c r="K116" s="1">
         <v>8000</v>
       </c>
       <c r="L116" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M116" t="s">
+        <v>287</v>
+      </c>
+      <c r="N116" t="s">
+        <v>322</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="R116" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>168</v>
       </c>
@@ -5826,14 +8400,32 @@
       <c r="H117">
         <v>0</v>
       </c>
+      <c r="I117" s="1" t="s">
+        <v>412</v>
+      </c>
       <c r="K117" s="1">
         <v>10000</v>
       </c>
       <c r="L117" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M117" t="s">
+        <v>287</v>
+      </c>
+      <c r="N117" t="s">
+        <v>322</v>
+      </c>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="R117" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>169</v>
       </c>
@@ -5858,14 +8450,32 @@
       <c r="H118">
         <v>0</v>
       </c>
+      <c r="I118" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="K118" s="1">
         <v>0</v>
       </c>
       <c r="L118" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M118" t="s">
+        <v>323</v>
+      </c>
+      <c r="N118" t="s">
+        <v>324</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="R118" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>170</v>
       </c>
@@ -5890,14 +8500,32 @@
       <c r="H119">
         <v>0</v>
       </c>
+      <c r="I119" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="K119" s="1">
         <v>0</v>
       </c>
       <c r="L119" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M119" t="s">
+        <v>325</v>
+      </c>
+      <c r="N119" t="s">
+        <v>326</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="R119" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>171</v>
       </c>
@@ -5922,14 +8550,32 @@
       <c r="H120">
         <v>0</v>
       </c>
+      <c r="I120" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="K120" s="1">
         <v>0</v>
       </c>
       <c r="L120" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M120" t="s">
+        <v>327</v>
+      </c>
+      <c r="N120" t="s">
+        <v>328</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="R120" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>172</v>
       </c>
@@ -5954,14 +8600,32 @@
       <c r="H121">
         <v>0</v>
       </c>
+      <c r="I121" s="1" t="s">
+        <v>416</v>
+      </c>
       <c r="K121" s="1">
         <v>0</v>
       </c>
       <c r="L121" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M121" t="s">
+        <v>323</v>
+      </c>
+      <c r="N121" t="s">
+        <v>329</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="R121" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>276</v>
       </c>
@@ -5986,14 +8650,32 @@
       <c r="H122">
         <v>0</v>
       </c>
+      <c r="I122" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K122" s="1">
         <v>5000</v>
       </c>
       <c r="L122" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M122" t="s">
+        <v>287</v>
+      </c>
+      <c r="N122" t="s">
+        <v>286</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q122" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="R122" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>173</v>
       </c>
@@ -6018,14 +8700,32 @@
       <c r="H123">
         <v>0</v>
       </c>
+      <c r="I123" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K123" s="1">
         <v>5000</v>
       </c>
       <c r="L123" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M123" t="s">
+        <v>294</v>
+      </c>
+      <c r="N123" t="s">
+        <v>292</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>174</v>
       </c>
@@ -6050,14 +8750,32 @@
       <c r="H124">
         <v>0</v>
       </c>
+      <c r="I124" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K124" s="1">
         <v>5000</v>
       </c>
       <c r="L124" s="1">
         <v>4000</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M124" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N124" t="s">
+        <v>301</v>
+      </c>
+      <c r="O124" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q124" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="R124" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>175</v>
       </c>
@@ -6082,17 +8800,35 @@
       <c r="H125">
         <v>0</v>
       </c>
+      <c r="I125" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="K125" s="1">
         <v>5000</v>
       </c>
       <c r="L125" s="1">
         <v>4000</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="N125" t="s">
+        <v>72</v>
+      </c>
+      <c r="O125" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="R125" s="1" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/Assets/StreamingAssets/Excel/CardInfo.xlsx
+++ b/Assets/StreamingAssets/Excel/CardInfo.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="180" windowWidth="29040" windowHeight="16260" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="29040" windowHeight="16200" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B1" sheetId="1" r:id="rId1"/>
     <sheet name="B2" sheetId="2" r:id="rId2"/>
     <sheet name="B3" sheetId="4" r:id="rId3"/>
+    <sheet name="B4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4180" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5248" uniqueCount="1761">
   <si>
     <t>CardNo</t>
   </si>
@@ -5517,12 +5518,1623 @@
     <t>null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>B4-001</t>
+  </si>
+  <si>
+    <t>窓辺の少女　雨宮雫</t>
+  </si>
+  <si>
+    <t>B4-002</t>
+  </si>
+  <si>
+    <t>止まない雨　雨宮雫</t>
+  </si>
+  <si>
+    <t>B4-003</t>
+  </si>
+  <si>
+    <t>雨上がりの虹　雨宮雫</t>
+  </si>
+  <si>
+    <t>B4-004</t>
+  </si>
+  <si>
+    <t>わんこ系　戌井野乃</t>
+  </si>
+  <si>
+    <t>B4-005</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>異国の少女　エミリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マック</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-006</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チアリーダー　エミリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マック</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-007</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天真爛漫　エミリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マック</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-008</t>
+  </si>
+  <si>
+    <t>ラクロス部　日下部翔子</t>
+  </si>
+  <si>
+    <t>B4-009</t>
+  </si>
+  <si>
+    <t>第2風紀委員　東条遥</t>
+  </si>
+  <si>
+    <t>B4-010</t>
+  </si>
+  <si>
+    <t>全力少女　東条遥</t>
+  </si>
+  <si>
+    <t>B4-011</t>
+  </si>
+  <si>
+    <t>戦闘中　東条遥</t>
+  </si>
+  <si>
+    <t>B4-012</t>
+  </si>
+  <si>
+    <t>ひたむきな閃光　東条遥</t>
+  </si>
+  <si>
+    <t>B4-013</t>
+  </si>
+  <si>
+    <t>ガンマン少女　那月琉花</t>
+  </si>
+  <si>
+    <t>B4-014</t>
+  </si>
+  <si>
+    <t>水を操る　那月琉花</t>
+  </si>
+  <si>
+    <t>B4-015</t>
+  </si>
+  <si>
+    <t>凛々しい銃士　那月琉花</t>
+  </si>
+  <si>
+    <t>B4-016</t>
+  </si>
+  <si>
+    <t>蒼き銃士　那月琉花</t>
+  </si>
+  <si>
+    <t>B4-017</t>
+  </si>
+  <si>
+    <t>覚醒　那月琉花</t>
+  </si>
+  <si>
+    <t>B4-018</t>
+  </si>
+  <si>
+    <t>空手部　花城樹里</t>
+  </si>
+  <si>
+    <t>B4-019</t>
+  </si>
+  <si>
+    <t>空手一筋　花城樹里</t>
+  </si>
+  <si>
+    <t>B4-020</t>
+  </si>
+  <si>
+    <t>まっすぐな拳　花城樹里</t>
+  </si>
+  <si>
+    <t>B4-021</t>
+  </si>
+  <si>
+    <t>さくらの親友　榛名萌々代</t>
+  </si>
+  <si>
+    <t>B4-022</t>
+  </si>
+  <si>
+    <t>食いしん坊　榛名萌々代</t>
+  </si>
+  <si>
+    <t>B4-023</t>
+  </si>
+  <si>
+    <t>ライダー　榛名萌々代</t>
+  </si>
+  <si>
+    <t>B4-024</t>
+  </si>
+  <si>
+    <t>以心伝心　双木麻耶</t>
+  </si>
+  <si>
+    <t>B4-025</t>
+  </si>
+  <si>
+    <t>仲良し姉妹　双木麻耶</t>
+  </si>
+  <si>
+    <t>B4-026</t>
+  </si>
+  <si>
+    <t>精神の糸　双木麻耶</t>
+  </si>
+  <si>
+    <t>B4-027</t>
+  </si>
+  <si>
+    <t>河童のおすそ分け</t>
+  </si>
+  <si>
+    <t>B4-028</t>
+  </si>
+  <si>
+    <t>青蘭商店街夏祭り</t>
+  </si>
+  <si>
+    <t>B4-029</t>
+  </si>
+  <si>
+    <t>七色の架け橋</t>
+  </si>
+  <si>
+    <t>B4-030</t>
+  </si>
+  <si>
+    <t>真夏の夜のホラーライブ</t>
+  </si>
+  <si>
+    <t>B4-031</t>
+  </si>
+  <si>
+    <t>ふわふわ魔女　ウェンディ</t>
+  </si>
+  <si>
+    <t>B4-032</t>
+  </si>
+  <si>
+    <t>風の誘い　ウェンディ</t>
+  </si>
+  <si>
+    <t>B4-033</t>
+  </si>
+  <si>
+    <t>黒い竜巻　ウェンディ</t>
+  </si>
+  <si>
+    <t>B4-034</t>
+  </si>
+  <si>
+    <t>漆黒の旋風　ウェンディ</t>
+  </si>
+  <si>
+    <t>B4-035</t>
+  </si>
+  <si>
+    <t>覚醒　ウェンディ</t>
+  </si>
+  <si>
+    <t>B4-036</t>
+  </si>
+  <si>
+    <t>鋭い爪　カーリー</t>
+  </si>
+  <si>
+    <t>B4-037</t>
+  </si>
+  <si>
+    <t>闇よりの使者　カーリー</t>
+  </si>
+  <si>
+    <t>B4-038</t>
+  </si>
+  <si>
+    <t>闇裂く紫刃　カーリー</t>
+  </si>
+  <si>
+    <t>B4-039</t>
+  </si>
+  <si>
+    <t>水竜の安らぎ　カチュア</t>
+  </si>
+  <si>
+    <t>B4-040</t>
+  </si>
+  <si>
+    <t>水上の散歩　カチュア</t>
+  </si>
+  <si>
+    <t>B4-041</t>
+  </si>
+  <si>
+    <t>気高き水竜　カチュア</t>
+  </si>
+  <si>
+    <t>B4-042</t>
+  </si>
+  <si>
+    <t>ティータイム　ソフィーナ</t>
+  </si>
+  <si>
+    <t>B4-043</t>
+  </si>
+  <si>
+    <t>見下ろす魔女　ソフィーナ</t>
+  </si>
+  <si>
+    <t>B4-044</t>
+  </si>
+  <si>
+    <t>大いなる意志　ソフィーナ</t>
+  </si>
+  <si>
+    <t>B4-045</t>
+  </si>
+  <si>
+    <t>真理の黒魔女　ソフィーナ</t>
+  </si>
+  <si>
+    <t>B4-046</t>
+  </si>
+  <si>
+    <t>第2風紀委員　テオドーチェ</t>
+  </si>
+  <si>
+    <t>B4-047</t>
+  </si>
+  <si>
+    <t>眠れる黙示録　テオドーチェ</t>
+  </si>
+  <si>
+    <t>B4-048</t>
+  </si>
+  <si>
+    <t>黒き賛美歌　テオドーチェ</t>
+  </si>
+  <si>
+    <t>B4-049</t>
+  </si>
+  <si>
+    <t>闘士　ハリエット</t>
+  </si>
+  <si>
+    <t>B4-050</t>
+  </si>
+  <si>
+    <t>炎の闘士　ハリエット</t>
+  </si>
+  <si>
+    <t>B4-051</t>
+  </si>
+  <si>
+    <t>猛る闘炎　ハリエット</t>
+  </si>
+  <si>
+    <t>B4-052</t>
+  </si>
+  <si>
+    <t>占い師　ポーラ</t>
+  </si>
+  <si>
+    <t>B4-053</t>
+  </si>
+  <si>
+    <t>水晶の導き　ポーラ</t>
+  </si>
+  <si>
+    <t>B4-054</t>
+  </si>
+  <si>
+    <t>見通す水晶球　ポーラ</t>
+  </si>
+  <si>
+    <t>B4-055</t>
+  </si>
+  <si>
+    <t>誘う果実のミスティカ</t>
+  </si>
+  <si>
+    <t>B4-056</t>
+  </si>
+  <si>
+    <t>ソフィーナと一緒　リゼリッタ</t>
+  </si>
+  <si>
+    <t>B4-057</t>
+  </si>
+  <si>
+    <t>コットンキャンディの誘惑</t>
+  </si>
+  <si>
+    <t>B4-058</t>
+  </si>
+  <si>
+    <t>セイレーンたちの戯れ</t>
+  </si>
+  <si>
+    <t>B4-059</t>
+  </si>
+  <si>
+    <t>魔力付与の呪印</t>
+  </si>
+  <si>
+    <t>B4-060</t>
+  </si>
+  <si>
+    <t>雷鷹スティング</t>
+  </si>
+  <si>
+    <t>B4-061</t>
+  </si>
+  <si>
+    <t>花咲く乙女　アウロラ</t>
+  </si>
+  <si>
+    <t>B4-062</t>
+  </si>
+  <si>
+    <t>憂いの乙女　アウロラ</t>
+  </si>
+  <si>
+    <t>B4-063</t>
+  </si>
+  <si>
+    <t>空中飛行　アウロラ</t>
+  </si>
+  <si>
+    <t>B4-064</t>
+  </si>
+  <si>
+    <t>明星の乙女　アウロラ</t>
+  </si>
+  <si>
+    <t>B4-065</t>
+  </si>
+  <si>
+    <t>蛍火の妖精 ルク</t>
+  </si>
+  <si>
+    <t>B4-066</t>
+  </si>
+  <si>
+    <t>小さな女神　プルエーコ</t>
+  </si>
+  <si>
+    <t>B4-067</t>
+  </si>
+  <si>
+    <t>未来を見る者　プルエーコ</t>
+  </si>
+  <si>
+    <t>B4-068</t>
+  </si>
+  <si>
+    <t>予兆の女神　プルエーコ</t>
+  </si>
+  <si>
+    <t>B4-069</t>
+  </si>
+  <si>
+    <t>見守る妖精　フローリア</t>
+  </si>
+  <si>
+    <t>B4-070</t>
+  </si>
+  <si>
+    <t>新米女神　ユラ</t>
+  </si>
+  <si>
+    <t>B4-071</t>
+  </si>
+  <si>
+    <t>剣を持つ者　ユラ</t>
+  </si>
+  <si>
+    <t>B4-072</t>
+  </si>
+  <si>
+    <t>誓いの剣聖　ユラ</t>
+  </si>
+  <si>
+    <t>B4-073</t>
+  </si>
+  <si>
+    <t>吟遊詩人　ライラ</t>
+  </si>
+  <si>
+    <t>B4-074</t>
+  </si>
+  <si>
+    <t>炎の歌　ライラ</t>
+  </si>
+  <si>
+    <t>B4-075</t>
+  </si>
+  <si>
+    <t>かがり火の詩人　ライラ</t>
+  </si>
+  <si>
+    <t>B4-076</t>
+  </si>
+  <si>
+    <t>打ち寄せる波　リューネ</t>
+  </si>
+  <si>
+    <t>B4-077</t>
+  </si>
+  <si>
+    <t>波の女神　リューネ</t>
+  </si>
+  <si>
+    <t>B4-078</t>
+  </si>
+  <si>
+    <t>海と波の女神　リューネ</t>
+  </si>
+  <si>
+    <t>B4-079</t>
+  </si>
+  <si>
+    <t>お散歩妖精　ルビー</t>
+  </si>
+  <si>
+    <t>B4-080</t>
+  </si>
+  <si>
+    <t>休憩中　ルビー</t>
+  </si>
+  <si>
+    <t>B4-081</t>
+  </si>
+  <si>
+    <t>魔法の勉強　ルビー</t>
+  </si>
+  <si>
+    <t>B4-082</t>
+  </si>
+  <si>
+    <t>紅玉の妖精　ルビー</t>
+  </si>
+  <si>
+    <t>B4-083</t>
+  </si>
+  <si>
+    <t>覚醒　ルビー</t>
+  </si>
+  <si>
+    <t>B4-084</t>
+  </si>
+  <si>
+    <t>魔法の妖精　ルフェ</t>
+  </si>
+  <si>
+    <t>B4-085</t>
+  </si>
+  <si>
+    <t>麗しき妖精　ルフェ</t>
+  </si>
+  <si>
+    <t>B4-086</t>
+  </si>
+  <si>
+    <t>神秘の妖精　ルフェ</t>
+  </si>
+  <si>
+    <t>B4-087</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>フェアリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>サークル</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-088</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プルピア</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ワルツ</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-089</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ペガサス</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マーチ</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-090</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>レイクサイド</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>レスト</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-091</t>
+  </si>
+  <si>
+    <t>第2風紀委員　アクエリア</t>
+  </si>
+  <si>
+    <t>B4-092</t>
+  </si>
+  <si>
+    <t>水も滴る　アクエリア</t>
+  </si>
+  <si>
+    <t>B4-093</t>
+  </si>
+  <si>
+    <t>奏でる調べ　アクエリア</t>
+  </si>
+  <si>
+    <t>B4-094</t>
+  </si>
+  <si>
+    <t>コードΣ31クレス　送受信モード</t>
+  </si>
+  <si>
+    <t>B4-095</t>
+  </si>
+  <si>
+    <t>コードΣ31クレス　挑発モード</t>
+  </si>
+  <si>
+    <t>B4-096</t>
+  </si>
+  <si>
+    <t>電子の海　コードΣ31クレス</t>
+  </si>
+  <si>
+    <t>B4-097</t>
+  </si>
+  <si>
+    <t>コードΣ52テルル 起動モード</t>
+  </si>
+  <si>
+    <t>B4-098</t>
+  </si>
+  <si>
+    <t>コードΣ52テルル 日常モード</t>
+  </si>
+  <si>
+    <t>B4-099</t>
+  </si>
+  <si>
+    <t>コードΣ52テルル 防衛モード</t>
+  </si>
+  <si>
+    <t>B4-100</t>
+  </si>
+  <si>
+    <t>コードΣ52テルル マキシマムモード</t>
+  </si>
+  <si>
+    <t>B4-101</t>
+  </si>
+  <si>
+    <t>覚醒 コードΣ52テルル</t>
+  </si>
+  <si>
+    <t>B4-102</t>
+  </si>
+  <si>
+    <t>待機中　システムNP＝ゼシカ</t>
+  </si>
+  <si>
+    <t>B4-103</t>
+  </si>
+  <si>
+    <t>ナビゲーション　システムNP＝ゼシカ</t>
+  </si>
+  <si>
+    <t>B4-104</t>
+  </si>
+  <si>
+    <t>電子の歌姫　システムNP＝ゼシカ</t>
+  </si>
+  <si>
+    <t>B4-105</t>
+  </si>
+  <si>
+    <t>タイプHU30ヒュー　休息モード</t>
+  </si>
+  <si>
+    <t>B4-106</t>
+  </si>
+  <si>
+    <t>タイプHU30ヒュー　地上ライド</t>
+  </si>
+  <si>
+    <t>B4-107</t>
+  </si>
+  <si>
+    <t>タイプHU30ヒュー　空中ライド</t>
+  </si>
+  <si>
+    <t>B4-108</t>
+  </si>
+  <si>
+    <t>コードΩ26ポムリ　開発モード</t>
+  </si>
+  <si>
+    <t>B4-109</t>
+  </si>
+  <si>
+    <t>コードΩ26ポムリ　爆発モード</t>
+  </si>
+  <si>
+    <t>B4-110</t>
+  </si>
+  <si>
+    <t>コードΩ26ポムリ　大爆発モード</t>
+  </si>
+  <si>
+    <t>B4-111</t>
+  </si>
+  <si>
+    <t>メイドロボ　タイプHU49ミト</t>
+  </si>
+  <si>
+    <t>B4-112</t>
+  </si>
+  <si>
+    <t>研究者　ユーリン＝シイク</t>
+  </si>
+  <si>
+    <t>B4-113</t>
+  </si>
+  <si>
+    <t>天才少女　ユーリン＝シイク</t>
+  </si>
+  <si>
+    <t>B4-114</t>
+  </si>
+  <si>
+    <t>未知なる世界　ユーリン＝シイク</t>
+  </si>
+  <si>
+    <t>B4-115</t>
+  </si>
+  <si>
+    <t>大いなる海　ユーリン＝シイク</t>
+  </si>
+  <si>
+    <t>B4-116</t>
+  </si>
+  <si>
+    <t>お嬢様　ランジェ＝マナナイ</t>
+  </si>
+  <si>
+    <t>B4-117</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クーリング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>プログラム</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-118</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>サン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>フラワー</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-119</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>テクスチャー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>チェンジ</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-120</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>フライング</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ユニット</t>
+    </r>
+  </si>
+  <si>
+    <t>B4-121</t>
+  </si>
+  <si>
+    <t>B4-122</t>
+  </si>
+  <si>
+    <t>B4-123</t>
+  </si>
+  <si>
+    <t>B4-124</t>
+  </si>
+  <si>
+    <t>Σ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒼空の変転世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出かけるときはいつも雨だ。雫の周りはいつも雨。…今日も憂鬱だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>おにねこ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク6‐①ΣΩ］这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「…雨の異能なんて迷惑。でもこの力がないと…島にいられない…」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「一粒一粒は小さいけど、大きな虹も作り出せる…私も雨のように！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク8‐①ΣΣΩΩ］抽三张卡，选择一张你的手卡，和卡组最上一张卡放入弃牌。这个回合中，这张卡的攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ん～、難しいことよくわかんないけど、とりあえずお菓子食べる？」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>れい亜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>サマーフェスティバルはもうすぐ。親友の琉花も誘って遊びに行こう！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新井テル子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#主要阶段[横置,リンク5‐②Σ]选择你卡组上方的三张卡中的一张，加入手卡，剩下的卡按照喜欢的顺序放在卡组顶或卡组最下方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2#链接阶段开始时［リンク5‐②Ω］这个回合中，这张卡的攻击力+6000&amp;1#[横置,从手卡丢弃一张卡]选择你手卡中的一张「天真爛漫　エミリー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>マック」，放在这张卡在的行动区里</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ワタシのYellでアナタの全力、引き出すよ！ Go,Fight,Win！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カグユヅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#你的主要阶段开始时，选择一张你的等级二以下的进化者，在对手的回合结束之前，等级+1&amp;2#链接阶段开始时［リンク5‐①ΩΩ］这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「ワタシのFriendに勝利Present！ Full Powerで応援するよ！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク8‐②ΩΩΩ］抽两张卡，选择一张你的手卡，丢入弃牌，这个回合中这张卡的攻击力+4000，这个效果丢弃的是三级以上的卡的时候，再抽一张，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「世界もいいけど、自分たちの青春もテキトーにはしたくないじゃん」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人間 / 超能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#[从手牌丢弃一张卡]你的蓝色进化者有四张以上的时候，这个回合中，这张卡shift登场的的等级四的蓝色进化者需要支付能量的时候，只需要支付一点能量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明るくて活発な遥は太陽のようだ。彼女の周りにはいつも人が集まる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ササギ コウシ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#[横置]选择以他的一枚进化者，这个回合中，链接+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「私と君で始めた風紀委員、こんなに大きくなるなんて思ってなかったよ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一十九二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接5-3，这个回合中，这张卡的攻击力+4000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接4-ΣΣ，这个回合中，这张卡的攻击力+4000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，观看你卡组最上方的一张卡，将卡组最上方的一张卡放入弃牌，选择一张你的进化者，这个回合中，攻击力+3000</t>
+  </si>
+  <si>
+    <t>（将伤害区表侧的一张卡里侧表示）这张卡在行动区放置的时候，支付了cost后，抽两张卡。</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择你的一张蓝色进化者，这个回合中，攻击力+5000，链接+1</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，这个回合中，你的所有的进化者全部攻击力+2000，选择一张你的蓝色进化者，这个回合中，攻击力+1000</t>
+  </si>
+  <si>
+    <t>【起】（从手卡丢弃一张卡）你的黑色进化者有四张以上的时候，这个回合中，这张卡shift的四级进化者支付cost横置能量时，只需要支付一点。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接9-2ΣΣΣ，对手自行选择一张卡丢弃，这个回合中，这张卡的攻击力+4000。对手的手卡在三张以下的时候，在选择你的一张其他的进化者，这个回合中，攻击力+4000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接6-1ΣΩ，这个回合中，这张卡的攻击力+5000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-1ΣΣΩΩ：对手自己选择一张卡丢弃。这个回合中，这张卡的攻击力+8000，伤害+1。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接4-ΩΩ，这个回合中，这张卡的攻击力+4000</t>
+  </si>
+  <si>
+    <t>【起】（从手牌丢弃一张卡）选择一张其他的进化者，这个回合中，攻击力+4000，由于这个效果卡名中带有「リゼリッタ」的进化者被选择了的话，在这个回合中，被选择的进化者链接+2</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接5-1ΣΣ，这个回合间由于链接中名字有带有「ソフィーナ」的进化者进入弃牌的时候，选择一张你的卡组内等级二以下名字含有「ソフィーナ」的进化者，在进化者区域横置，洗切你的卡组，这个回合中，这张卡的攻击力+4000.</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接6-3，你的黑色进化者有四张以上的时候，这个回合中，这张卡的攻击力+6000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接7-ΣΣΣΣ，这个回合中，这张卡的攻击力+7000.你的场上有卡名「ソフィーナ」的卡有四张的时候，选择以下的其中一个效果执行【对手的手牌有四张以上的时候，自行丢弃至三张为止】【对手自行选择一张手卡丢弃】</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-4，你的黑色进化者有四张以上的时候，这个回合中，这张卡的攻击力+7000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接7-2ΩΩ，这个回合中，这张卡的攻击力+4000，可以最多进行两次以下行动【选择你一张手牌和一张在伤害区内表侧表示的卡，交换。】</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，这个回合中，你的所有的进化者全部攻击力+2000，选择一张你的黑色进化者，这个回合中，攻击力+1000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择你伤害区表侧的一张卡，和手卡的一张卡替换，选择你的一张进化者，这个回合中，攻击力+3000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择一张你的黑色进化者，这个回合中，攻击力+5000，链接+1</t>
+  </si>
+  <si>
+    <t>【将你的一张进化者横置】这张卡在行动区放置的时候，支付了cost的话，选择你卡组中的最多两张进化者公开，加入手卡，洗切你的卡组。</t>
+  </si>
+  <si>
+    <t>【起】主要阶段（横置）链接4-1Σ，将你卡组上方的六张卡丢入弃牌，选择其他的你的一张进化者，这个回合中，攻击力+3000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接5-1ΩΩ，这个回合中你因为链接而丢弃的卡中有名字带有「アウロラ」的进化者进入弃牌的话，将你卡组中一张等级2以下的名字带有「アウロラ」的进化者，横置在进化者区，洗切你的卡组，这个回合中，这张卡的攻击力+4000。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接6-3，你的红色进化者有四张以上的时候，这个回合中，这张卡的攻击力+6000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-3ΩΩ，这个回合中，这张卡的攻击力+8000，选择一张你的手卡丢弃，丢弃了以后，你的卡名中每有两张名字带有「アウロラ」的进化者，给对手一点伤害。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-1ΣΣΩΩ，选择你弃牌当中的一张进化者，回到手卡，选择你弃牌当中等级四以下的一张进化者，放置在进化者区域，这个回合中，这张卡的攻击力+4000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-4，你的红色进化者有四张以上的时候，这个回合中，这张卡的攻击力+7000</t>
+  </si>
+  <si>
+    <t>【常】所有玩家在自己的主要阶段中，所有的玩家都不能选择自己的弃牌。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接7-2ΣΣ，观看你卡组上方最多四张卡丢入弃牌，洗切你的卡组，这个回合中，这张卡攻击力+6000</t>
+  </si>
+  <si>
+    <t>【起】从手牌丢弃一张卡：你的红色进化者有四张以上的时候，这个回合中，这张卡shift登场的的等级四的蓝色进化者需要支付能量的时候，只需要支付一点能量。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接9-2ΩΩΩ，对手将对手的卡组上方的两张卡公开，如果当中有带有链接边框的卡的话，这个效果公开的卡全部进入弃牌，没有链接边框的话，这个效果公开的卡全部进入伤害区。这个回合中，这张卡的攻击力+6000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择一张你的红色进化者，这个回合中，攻击力+5000，链接+1</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，将你卡组上方的六张卡，丢入弃牌。选择一张你的进化者，这个回合中，攻击力+3000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，这个回合中，你的进化者全部的攻击力+2000，再选择一张你的红色进化者，这个回合攻击力+1000</t>
+  </si>
+  <si>
+    <t>（横置一张你的进化者）这张卡在行动区放置的时候，支付了cost之后，将你弃牌的两张卡回到手卡。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接7-ΣΣΣΣ，对手的回合结束之前，这张卡的攻击力+4000。这张卡攻击对象是等级二以下的进化者的时候，到对方回合结束之前攻击力再+2000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-1ΣΣΩ，将你的所有伤害区的卡全部表侧放置，将对手的伤害区的所有卡全部里侧放置，在对手的回合结束之前，这张卡的攻击力+5000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接9-1ΣΣΣΣ，对手的回合结束之前，这张卡的攻击力+6000</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接7-2ΩΩ，你的伤害区所有的卡全部表侧放置，这个回合中，这张卡的攻击力+4000。</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接8-4，你的白色进化者有四张以上的时候，这个回合中，这张卡的攻击力+7000</t>
+  </si>
+  <si>
+    <t>【起】主要阶段（横置）链接4-1Ω，选择一张你的能量卡苏醒，选择一张你的进化者，这个回合中中攻击力+1000</t>
+  </si>
+  <si>
+    <t>【起】选择一张其他的你的进化者，这个回合链接+1</t>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接6-3，你的白色进化者有四张以上的时候，这个回合中，这张卡的攻击力+6000</t>
+  </si>
+  <si>
+    <t>【起】从手牌丢弃一张卡：你的白色进化者有四张以上的时候，这个回合中，这张卡shift登场的的等级四的白色进化者需要支付能量的时候，只需要支付一点能量。</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择你能量卡中的两张里侧的状态，回到手卡，选择一张你的进化者，攻击力+1000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择你的伤害区的一张卡，将其表侧表示，选择一张你的进化者，这个回合中，攻击力+4000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，这个回合中，你的所有进化者的攻击力+2000，在选择一只白色的进化者，这个回合中，攻击力+1000</t>
+  </si>
+  <si>
+    <t>这张卡在行动区放置的时候，选择一张你的白色进化者，这个回合中，攻击力+5000，链接+1</t>
+  </si>
+  <si>
+    <t>【常】奇迹2：这张卡链接失败的时候，再进行两张卡的判定，这个效果一回合只能使用一次。&amp;链接阶段开始时：链接5-1ΣΣ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-3Σ，选择你的一张蓝色进化者，这个回合中，攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】你的回合中，你的其他等级三以上的进化者在场的时候，这张卡的等级+1&amp;链接阶段开始时：链接5-ΣΣΣ，这个回合中，这张卡的攻击力+6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（横置一张能量）这张卡登场的时候，支付了cost的话，将你卡组的一张「覚醒　ウェンディ」加入手卡，洗切你的卡组。&amp;；链接阶段开始时：链接5-ΣΣΣ，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，选择一张其他等级3以上的进化者，这个回合中，攻击力+2000，链接+2&amp;链接阶段开始时：链接9-2ΣΣΣ，选择至多一张你卡组中的进化者公开，加入手卡，洗切你的卡组，这个回合中，这张卡的攻击力+8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接6-1ΣΩ，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的玩家在自己的主要阶段，所有的玩家都不能选择自己的卡组的卡。&amp;链接阶段开始时：链接5-2Ω，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-3Ω，选择你的一张黑色进化者，这个回合中，攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，你的等级0的进化者有三张以上的话，选择你手牌中一张等级三以下的进化者，横置登场在你的进化者区域。&amp;链接阶段开始时：链接5-1ΩΩ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-1ΩΩΩ，这个回合中这张卡的攻击力+6000，伤害+1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的主要阶段开始时，选择一张你的等级二以下的进化者，在对手的回合结束之前，等级+1&amp;链接阶段开始时：链接5-1ΣΣ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】奇迹2：这张卡链接失败的时候，再进行两张卡的判定，这个效果一回合只能使用一次。&amp;链接阶段开始时：链接5-1ΩΩ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】keeper：keeper在卡组中只能放四张&amp;链接-卡因为防御而被丢入弃牌时：链接5-3，选择你的卡名中带有[ソフィーナ]的进化者，这场战斗中攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】keeper：keeper在卡组中只能放四张&amp;链接-卡因为防御而被丢入弃牌时：链接5-3，选择你的卡名中带有[アウロラ]的进化者，这场战斗中攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-3Σ，选择你的一张红色进化者，这个回合中，攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的主要阶段开始时，选择一张你的等级二以下的进化者，在对手的回合结束之前，等级+1&amp;链接阶段开始时：链接5-1ΩΩ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】你的回合中，你的其他等级三以上的进化者在场的时候，这张卡的等级+1&amp;链接阶段开始时：链接5-ΩΩΩ，这个回合中，这张卡的攻击力+6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（横置一张能量）这张卡登场的时候，支付了cost的话，将你卡组的一张「覚醒　ルビー」加入手卡，洗切你的卡组。&amp;链接阶段开始时：链接5-ΩΩΩ，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，选择一张其他等级3以上的进化者，这个回合中，攻击力+2000，链接+2&amp;链接阶段开始时：链接9-2ΩΩΩ，选择你弃牌的一张卡，回到手卡，这张卡的攻击力+8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，你的等级0的进化者有三张以上的话，选择你手牌中一张等级三以下的进化者，横置登场在你的进化者区域。&amp;链接阶段开始时：链接5-1ΣΣ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-1ΣΣΣ，选择你的弃牌中一张等级一的卡，放在卡组上方，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接阶段开始时：链接5-2Σ这个回合中，这张卡的攻击力+6000&amp;【起】（从手卡丢弃一张卡）将你手卡的一张「奏でる調べ　アクエリア」在这张卡所在的行动区放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的主要阶段开始时，选择一张你的等级2以下的进化者，在对方回合结束之前等级+1&amp;连接阶段开始时：链接5-1ΣΣ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（横置一张你的能量）这张卡登场的时候，支付了cost之后，从你的卡组中选择一张「覚醒 コードΣ52テルル」公开，加入手卡，洗切你的卡组。&amp;链接阶段开始时：链接5-ΣΣΣ，这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，选择一张其他等级3以上的进化者，这个回合中，攻击力+2000，链接+2&amp;链接阶段开始时：链接8-1ΣΣΣΣ，选择你的一张伤害，丢入弃牌，这个回合中，这张卡的攻击力+8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张卡登场的时候，你的0级进化者有三张以上的时候，选择你的手卡一张等级三以下的进化者，放置在进化者区&amp;链接阶段开始时：链接5-1ΩΩ，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】所有的玩家的主要回合中，所有的玩家都不能选择自己的进化者&amp;链接阶段开始时：链接5-2Ω，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-3Ω，选择一张你的白色进化者，这个回合中，攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【常】Alternate：SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡&amp;链接阶段开始时：链接7-1ΩΩΩ，从卡组上方观看三张卡，选择一张等级四以下的进化者，横置在进化者区，，剩下的卡丢入弃牌，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「お願い、力を貸して！　私……助けたいの！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ぷにゃん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク6‐③］你的蓝色进化者有四张以上的时候，这个回合中，这张卡的攻击力+6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「これが、私の力……。当たって！　光の拳！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#Alternate(SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡)&amp;2#链接阶段开始时［リンク6‐①ΣΩ］这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#Alternate(SHIFT登场的时候，原来的进化者不进入弃牌区，回到手卡)&amp;2#链接阶段开始时［リンク7‐①ΣΣΣ］将这张卡苏醒，这个回合中这张卡的攻击力+5000，这个效果一回合只能使用一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>琉花の異能は『水質変化』。水鉄砲からなにが飛び出すかはお楽しみ！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人間 / 武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wingheart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蘭島の夏は爽快で気持ちがいい。琉花の大好きな季節の始まりだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#你的回合中，你的其他等级三以上的进化者在场的时候，这张卡的等级+1&amp;2#链接阶段开始时［リンク5‐ΩΩΩ］这个回合中，这张卡的攻击力+6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「でさ、空で緑色の光がぴかーってなって。変な夢だったんだ～」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#[横置一张能量]这张卡登场的时候，支付了cost的话，将你卡组的一张「覚醒　那月琉花」加入手卡，洗切你的卡组。&amp;2#链接阶段开始时［リンク5‐ΩΩΩ］这个回合中，这张卡的攻击力+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「フリーズ！ 下手に動くと水鉄砲が火を…じゃない、水を噴くぜ？」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>菊池政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク9‐②ΩΩΩ］这张卡的攻击力+4000，选择以下的一个效果处理[抽两张卡，选择你手卡中的一张卡，丢入弃牌][抽两张卡，选择你手卡中的两张卡丢弃，选择一张其他的你的进化者，链接+2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「と～ってもアツイ、スペシャルショー見せてやるよ。覚悟しな！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>カジミヤ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡登场的时候，选择一张其他等级3以上的进化者，这个回合中，攻击力+2000，链接+2&amp;2#链接阶段开始时［リンク9‐②ΩΩΩ］抽两张卡，这个回合中，这张卡的攻击力+6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さくらや萌々代はクラスメイト。今日も一緒にお昼を食べる約束だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りいちゅ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「押忍！ ブルーミングバトルも空手も全力で取り組みます、はい！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「一発入魂！ 花城、気合入れていきます！ ちぇぇすとぉぉぉっ！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク8‐④］你的蓝色进化者有四张以上的时候，这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>話題は昨日見た夢のこと。空で緑色の光が弾ける、変な夢を見た。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中村煌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#奇迹2(这张卡链接失败的时候，再进行两张卡的判定，这个效果一回合只能使用一次)。&amp;2#链接阶段开始时［リンク5‐①ΣΣ］这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「食いすぎ？ いいんだよ、育ち盛りなんだから。へへ、美味しい～」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#这张卡登场的时候，你的等级0的进化者有三张以上的话，选择你手牌中一张等级三以下的进化者，横置登场在你的进化者区域。&amp;2#链接阶段开始时［リンク5‐①ΣΣ］这个回合中，这张卡的攻击力+7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>「まったくもう、そんな顔されて放っておけるわけないじゃないか！」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク7‐②ΣΣ］观看你卡组顶上两张卡，选择最多两张卡按照你喜欢的顺序放置，剩下的卡丢入弃牌，这个回合中，这张卡的攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻耶は双子の妹、美弥といつも一緒。お弁当も毎朝ふたりで手作りだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>すぶり</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2#链接阶段开始时［リンク4‐ΣΣ］这个回合中，这张卡的攻击力+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>「ミヤ、またテレパシーで話してるよ？」「だって内緒なんだもん</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="MS Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>♪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>まやち</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#所有玩家在自己的主要阶段中，所有的玩家都不能抽卡。&amp;链接阶段开始时：链接5-2Σ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -5565,6 +7177,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="MS Gothic"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -19487,13 +21106,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122:I125"/>
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="9" max="9" width="243.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.125" customWidth="1"/>
     <col min="10" max="10" width="69.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26123,4 +27742,4991 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="38.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164" customWidth="1"/>
+    <col min="10" max="10" width="25.375" customWidth="1"/>
+    <col min="11" max="11" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>767</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>743</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>1624</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1622</v>
+      </c>
+      <c r="K2" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>1627</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="K4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="K5" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1630</v>
+      </c>
+      <c r="K6" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1638</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="K8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1635</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>1641</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>1644</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1642</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1645</v>
+      </c>
+      <c r="K11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="K12" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1725</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1727</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" t="s">
+        <v>1730</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1732</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>1733</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>1735</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L16" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1738</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>1742</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1741</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="6" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="6" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L20" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L21" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1731</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1744</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1750</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K22" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K23" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L23" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>1754</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K24" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1749</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K25" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L25" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1756</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K26" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1640</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1759</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L27" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="K29" s="1">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K30" s="1">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="K31" s="1">
+        <v>0</v>
+      </c>
+      <c r="L31" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="K32" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L32" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K34" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L34" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="K35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L35" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="K36" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K37" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K38" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L38" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="K39" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L39" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K40" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L40" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="K41" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L41" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="K42" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L42" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L43" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="K44" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L44" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="K45" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L45" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="K46" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K47" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L47" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="K48" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L48" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L49" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="K50" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L50" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K51" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L51" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K52" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L52" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K53" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L53" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="K54" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L54" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N54" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K55" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L55" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="K56" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L56" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="K57" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="K58" s="1">
+        <v>0</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K59" s="1">
+        <v>0</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="K60" s="1">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E61" s="1">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K61" s="1">
+        <v>0</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K62" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K63" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="K64" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K65" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L65" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N65" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="K66" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L66" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K67" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L67" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K68" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N68" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="K69" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L69" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="K70" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L70" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="K71" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L71" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="K72" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N72" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="K73" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L73" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="K74" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N74" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K75" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L75" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="1">
+        <v>4</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L76" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N76" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="K77" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L77" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N77" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="K78" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L78" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N78" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" s="1">
+        <v>4</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K79" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L79" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N79" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="K80" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L80" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="1">
+        <v>2</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K81" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L81" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" s="1">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="K82" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L82" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" s="1">
+        <v>4</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K83" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L83" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="1">
+        <v>5</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="K84" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L84" s="1">
+        <v>0</v>
+      </c>
+      <c r="N84" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="1">
+        <v>2</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K85" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L85" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" s="1">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>1714</v>
+      </c>
+      <c r="K86" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L86" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" s="1">
+        <v>4</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>1715</v>
+      </c>
+      <c r="K87" s="1">
+        <v>9000</v>
+      </c>
+      <c r="L87" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N87" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="K88" s="1">
+        <v>0</v>
+      </c>
+      <c r="L88" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" s="1">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="K89" s="1">
+        <v>0</v>
+      </c>
+      <c r="L89" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K90" s="1">
+        <v>0</v>
+      </c>
+      <c r="L90" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" s="1">
+        <v>3</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>1681</v>
+      </c>
+      <c r="K91" s="1">
+        <v>0</v>
+      </c>
+      <c r="L91" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K92" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L92" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" s="1">
+        <v>3</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>1717</v>
+      </c>
+      <c r="K93" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L93" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="1">
+        <v>4</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K94" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L94" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="K95" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L95" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" s="1">
+        <v>3</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>1700</v>
+      </c>
+      <c r="K96" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L96" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N96" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="1">
+        <v>4</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K97" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L97" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N97" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="K98" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L98" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N98" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="K99" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L99" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="K100" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L100" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1">
+        <v>4</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K101" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L101" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="1">
+        <v>5</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="K102" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1">
+        <v>2</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="K103" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L103" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="1">
+        <v>3</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="K104" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L104" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="1">
+        <v>4</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K105" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L105" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="1">
+        <v>2</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="K106" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L106" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N106" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="K107" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" s="1">
+        <v>4</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K108" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L108" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N108" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="1">
+        <v>2</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="K109" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L109" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N109" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" s="1">
+        <v>3</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="K110" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L110" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N110" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="1">
+        <v>4</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>1722</v>
+      </c>
+      <c r="K111" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L111" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N111" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="1">
+        <v>1</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="K112" s="1">
+        <v>7000</v>
+      </c>
+      <c r="L112" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N112" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K113" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L113" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N113" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="K114" s="1">
+        <v>6000</v>
+      </c>
+      <c r="L114" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N114" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" s="1">
+        <v>3</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K115" s="1">
+        <v>8000</v>
+      </c>
+      <c r="L115" s="1">
+        <v>4000</v>
+      </c>
+      <c r="N115" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="1">
+        <v>4</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J116" s="1">
+        <v>9000</v>
+      </c>
+      <c r="K116" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="J117" s="1">
+        <v>6000</v>
+      </c>
+      <c r="K117" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="P117" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E119" s="1">
+        <v>0</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="J119" s="1">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M119" s="1">
+        <v>0</v>
+      </c>
+      <c r="P119" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E120" s="1">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="J120" s="1">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M120" s="1">
+        <v>0</v>
+      </c>
+      <c r="P120" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J121" s="1">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M121" s="1">
+        <v>0</v>
+      </c>
+      <c r="P121" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K122" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M122" s="1">
+        <v>0</v>
+      </c>
+      <c r="P122" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K123" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0</v>
+      </c>
+      <c r="P123" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K124" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0</v>
+      </c>
+      <c r="P124" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1">
+        <v>5000</v>
+      </c>
+      <c r="K125" s="1">
+        <v>4000</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0</v>
+      </c>
+      <c r="P125" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>